--- a/INTLINE/data/134/DEUSTATIS/old/Turnover in retail trade - 1994.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Turnover in retail trade - 1994.xlsx
@@ -190,7 +190,7 @@
     <t>a break in the time series.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:03:52</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:40:50</t>
   </si>
 </sst>
 </file>
@@ -6410,7 +6410,7 @@
         <v>96.2</v>
       </c>
       <c r="AS13" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="AT13" t="n" s="10">
         <v>94.3</v>
@@ -6584,7 +6584,7 @@
         <v>93.9</v>
       </c>
       <c r="CY13" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="CZ13" t="n" s="10">
         <v>94.1</v>
@@ -8316,10 +8316,10 @@
         <v>83.3</v>
       </c>
       <c r="K18" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="L18" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="M18" t="n" s="10">
         <v>84.5</v>
@@ -8334,10 +8334,10 @@
         <v>84.9</v>
       </c>
       <c r="Q18" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="R18" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="S18" t="n" s="10">
         <v>86.1</v>
@@ -8382,7 +8382,7 @@
         <v>84.9</v>
       </c>
       <c r="AG18" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="AH18" t="n" s="10">
         <v>86.5</v>
@@ -8400,19 +8400,19 @@
         <v>84.7</v>
       </c>
       <c r="AM18" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="AN18" t="n" s="10">
         <v>84.3</v>
       </c>
       <c r="AO18" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="AP18" t="n" s="10">
         <v>84.1</v>
       </c>
       <c r="AQ18" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="AR18" t="n" s="10">
         <v>84.7</v>
@@ -8433,7 +8433,7 @@
         <v>83.4</v>
       </c>
       <c r="AX18" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="AY18" t="n" s="10">
         <v>84.8</v>
@@ -8442,76 +8442,76 @@
         <v>84.6</v>
       </c>
       <c r="BA18" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="BB18" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="BC18" t="n" s="10">
-        <v>84.3</v>
+        <v>84.9</v>
       </c>
       <c r="BD18" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="BE18" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="BF18" t="n" s="10">
         <v>85.1</v>
       </c>
       <c r="BG18" t="n" s="10">
+        <v>85.2</v>
+      </c>
+      <c r="BH18" t="n" s="10">
+        <v>84.4</v>
+      </c>
+      <c r="BI18" t="n" s="10">
         <v>85.3</v>
       </c>
-      <c r="BH18" t="n" s="10">
-        <v>84.5</v>
-      </c>
-      <c r="BI18" t="n" s="10">
+      <c r="BJ18" t="n" s="10">
+        <v>85.1</v>
+      </c>
+      <c r="BK18" t="n" s="10">
+        <v>85.2</v>
+      </c>
+      <c r="BL18" t="n" s="10">
+        <v>84.2</v>
+      </c>
+      <c r="BM18" t="n" s="10">
+        <v>86.6</v>
+      </c>
+      <c r="BN18" t="n" s="10">
+        <v>83.6</v>
+      </c>
+      <c r="BO18" t="n" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="BP18" t="n" s="10">
         <v>85.4</v>
       </c>
-      <c r="BJ18" t="n" s="10">
-        <v>85.2</v>
-      </c>
-      <c r="BK18" t="n" s="10">
-        <v>85.3</v>
-      </c>
-      <c r="BL18" t="n" s="10">
+      <c r="BQ18" t="n" s="10">
+        <v>85.8</v>
+      </c>
+      <c r="BR18" t="n" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="BS18" t="n" s="10">
         <v>84.3</v>
       </c>
-      <c r="BM18" t="n" s="10">
-        <v>86.7</v>
-      </c>
-      <c r="BN18" t="n" s="10">
-        <v>83.8</v>
-      </c>
-      <c r="BO18" t="n" s="10">
-        <v>82.1</v>
-      </c>
-      <c r="BP18" t="n" s="10">
-        <v>85.6</v>
-      </c>
-      <c r="BQ18" t="n" s="10">
-        <v>86.0</v>
-      </c>
-      <c r="BR18" t="n" s="10">
-        <v>85.0</v>
-      </c>
-      <c r="BS18" t="n" s="10">
-        <v>84.4</v>
-      </c>
       <c r="BT18" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="BU18" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="BV18" t="n" s="10">
-        <v>86.0</v>
+        <v>85.8</v>
       </c>
       <c r="BW18" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="BX18" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="BY18" t="n" s="10">
         <v>85.5</v>
@@ -8520,16 +8520,16 @@
         <v>88.0</v>
       </c>
       <c r="CA18" t="n" s="10">
-        <v>87.5</v>
+        <v>88.1</v>
       </c>
       <c r="CB18" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="CC18" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="CD18" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="CE18" t="n" s="10">
         <v>88.5</v>
@@ -8562,7 +8562,7 @@
         <v>89.7</v>
       </c>
       <c r="CO18" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="CP18" t="n" s="10">
         <v>88.3</v>
@@ -8586,7 +8586,7 @@
         <v>86.9</v>
       </c>
       <c r="CW18" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="CX18" t="n" s="10">
         <v>86.1</v>
@@ -8595,7 +8595,7 @@
         <v>86.7</v>
       </c>
       <c r="CZ18" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="DA18" t="n" s="10">
         <v>87.0</v>
@@ -8622,16 +8622,16 @@
         <v>86.1</v>
       </c>
       <c r="DI18" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="DJ18" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="DK18" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="DL18" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="DM18" t="n" s="10">
         <v>85.3</v>
@@ -8643,7 +8643,7 @@
         <v>86.0</v>
       </c>
       <c r="DP18" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="DQ18" t="n" s="10">
         <v>85.5</v>
@@ -8658,7 +8658,7 @@
         <v>86.7</v>
       </c>
       <c r="DU18" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="DV18" t="n" s="10">
         <v>87.5</v>
@@ -8696,7 +8696,7 @@
         <v>83.5</v>
       </c>
       <c r="D19" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="E19" t="n" s="10">
         <v>83.6</v>
@@ -8798,7 +8798,7 @@
         <v>85.3</v>
       </c>
       <c r="AL19" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="AM19" t="n" s="10">
         <v>85.0</v>
@@ -8807,7 +8807,7 @@
         <v>84.9</v>
       </c>
       <c r="AO19" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="AP19" t="n" s="10">
         <v>84.6</v>
@@ -8852,7 +8852,7 @@
         <v>84.7</v>
       </c>
       <c r="BD19" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="BE19" t="n" s="10">
         <v>84.8</v>
@@ -8864,61 +8864,61 @@
         <v>84.9</v>
       </c>
       <c r="BH19" t="n" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="BI19" t="n" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="BJ19" t="n" s="10">
         <v>85.0</v>
       </c>
-      <c r="BI19" t="n" s="10">
+      <c r="BK19" t="n" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="BL19" t="n" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="BM19" t="n" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="BN19" t="n" s="10">
+        <v>84.8</v>
+      </c>
+      <c r="BO19" t="n" s="10">
+        <v>84.8</v>
+      </c>
+      <c r="BP19" t="n" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="BQ19" t="n" s="10">
+        <v>85.0</v>
+      </c>
+      <c r="BR19" t="n" s="10">
         <v>85.1</v>
       </c>
-      <c r="BJ19" t="n" s="10">
-        <v>85.1</v>
-      </c>
-      <c r="BK19" t="n" s="10">
-        <v>85.1</v>
-      </c>
-      <c r="BL19" t="n" s="10">
-        <v>85.2</v>
-      </c>
-      <c r="BM19" t="n" s="10">
-        <v>85.2</v>
-      </c>
-      <c r="BN19" t="n" s="10">
-        <v>85.2</v>
-      </c>
-      <c r="BO19" t="n" s="10">
-        <v>85.2</v>
-      </c>
-      <c r="BP19" t="n" s="10">
+      <c r="BS19" t="n" s="10">
         <v>85.3</v>
       </c>
-      <c r="BQ19" t="n" s="10">
-        <v>85.3</v>
-      </c>
-      <c r="BR19" t="n" s="10">
-        <v>85.4</v>
-      </c>
-      <c r="BS19" t="n" s="10">
+      <c r="BT19" t="n" s="10">
         <v>85.5</v>
       </c>
-      <c r="BT19" t="n" s="10">
+      <c r="BU19" t="n" s="10">
         <v>85.7</v>
       </c>
-      <c r="BU19" t="n" s="10">
-        <v>85.9</v>
-      </c>
       <c r="BV19" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="BW19" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="BX19" t="n" s="10">
         <v>86.5</v>
       </c>
       <c r="BY19" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="BZ19" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="CA19" t="n" s="10">
         <v>87.1</v>
@@ -8987,7 +8987,7 @@
         <v>87.3</v>
       </c>
       <c r="CW19" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="CX19" t="n" s="10">
         <v>87.0</v>
@@ -9044,7 +9044,7 @@
         <v>85.9</v>
       </c>
       <c r="DP19" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="DQ19" t="n" s="10">
         <v>86.2</v>
@@ -10305,7 +10305,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D24" t="n" s="10">
         <v>99.2</v>
@@ -10320,7 +10320,7 @@
         <v>96.8</v>
       </c>
       <c r="H24" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="I24" t="n" s="10">
         <v>98.4</v>
@@ -10338,22 +10338,22 @@
         <v>97.6</v>
       </c>
       <c r="N24" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="O24" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="P24" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="Q24" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="R24" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="S24" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="T24" t="n" s="10">
         <v>101.6</v>
@@ -10362,7 +10362,7 @@
         <v>99.5</v>
       </c>
       <c r="V24" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="W24" t="n" s="10">
         <v>101.2</v>
@@ -10371,7 +10371,7 @@
         <v>98.3</v>
       </c>
       <c r="Y24" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="Z24" t="n" s="10">
         <v>99.6</v>
@@ -10380,7 +10380,7 @@
         <v>98.9</v>
       </c>
       <c r="AB24" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC24" t="n" s="10">
         <v>98.3</v>
@@ -10392,10 +10392,10 @@
         <v>98.7</v>
       </c>
       <c r="AF24" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="AG24" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="AH24" t="n" s="10">
         <v>99.5</v>
@@ -10419,16 +10419,16 @@
         <v>96.1</v>
       </c>
       <c r="AO24" t="n" s="10">
-        <v>98.2</v>
+        <v>98.4</v>
       </c>
       <c r="AP24" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="AQ24" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="AR24" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="AS24" t="n" s="10">
         <v>96.0</v>
@@ -10443,7 +10443,7 @@
         <v>97.3</v>
       </c>
       <c r="AW24" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="AX24" t="n" s="10">
         <v>95.8</v>
@@ -10458,7 +10458,7 @@
         <v>93.2</v>
       </c>
       <c r="BB24" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="BC24" t="n" s="10">
         <v>96.7</v>
@@ -10467,7 +10467,7 @@
         <v>95.9</v>
       </c>
       <c r="BE24" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="BF24" t="n" s="10">
         <v>96.7</v>
@@ -10476,7 +10476,7 @@
         <v>97.1</v>
       </c>
       <c r="BH24" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="BI24" t="n" s="10">
         <v>98.0</v>
@@ -10494,13 +10494,13 @@
         <v>100.8</v>
       </c>
       <c r="BN24" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="BO24" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="BP24" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="BQ24" t="n" s="10">
         <v>100.2</v>
@@ -10518,13 +10518,13 @@
         <v>99.5</v>
       </c>
       <c r="BV24" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="BW24" t="n" s="10">
         <v>98.0</v>
       </c>
       <c r="BX24" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="BY24" t="n" s="10">
         <v>98.9</v>
@@ -10533,7 +10533,7 @@
         <v>100.6</v>
       </c>
       <c r="CA24" t="n" s="10">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="CB24" t="n" s="10">
         <v>99.5</v>
@@ -10581,10 +10581,10 @@
         <v>101.4</v>
       </c>
       <c r="CQ24" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="CR24" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="CS24" t="n" s="10">
         <v>101.9</v>
@@ -10593,19 +10593,19 @@
         <v>101.4</v>
       </c>
       <c r="CU24" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="CV24" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="CW24" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="CX24" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="CY24" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="CZ24" t="n" s="10">
         <v>101.2</v>
@@ -10617,7 +10617,7 @@
         <v>102.6</v>
       </c>
       <c r="DC24" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="DD24" t="n" s="10">
         <v>102.4</v>
@@ -10653,13 +10653,13 @@
         <v>102.7</v>
       </c>
       <c r="DO24" t="n" s="10">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="DP24" t="n" s="10">
         <v>104.0</v>
       </c>
       <c r="DQ24" t="n" s="10">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="DR24" t="n" s="10">
         <v>104.0</v>
@@ -10671,16 +10671,16 @@
         <v>104.4</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="DV24" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="DW24" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="DX24" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="DY24" t="n" s="10">
         <v>106.7</v>
@@ -10695,10 +10695,10 @@
         <v>105.6</v>
       </c>
       <c r="EC24" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="ED24" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="25">
@@ -10730,7 +10730,7 @@
         <v>97.3</v>
       </c>
       <c r="K25" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="L25" t="n" s="10">
         <v>97.8</v>
@@ -10766,10 +10766,10 @@
         <v>100.2</v>
       </c>
       <c r="W25" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="X25" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="Y25" t="n" s="10">
         <v>99.8</v>
@@ -10790,7 +10790,7 @@
         <v>99.0</v>
       </c>
       <c r="AE25" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="AF25" t="n" s="10">
         <v>98.9</v>
@@ -10799,13 +10799,13 @@
         <v>98.8</v>
       </c>
       <c r="AH25" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AI25" t="n" s="10">
         <v>98.6</v>
       </c>
       <c r="AJ25" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="AK25" t="n" s="10">
         <v>98.3</v>
@@ -10850,7 +10850,7 @@
         <v>95.9</v>
       </c>
       <c r="AY25" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="AZ25" t="n" s="10">
         <v>95.9</v>
@@ -10916,22 +10916,22 @@
         <v>98.9</v>
       </c>
       <c r="BU25" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="BV25" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="BW25" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="BX25" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="BY25" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="BZ25" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="CA25" t="n" s="10">
         <v>100.0</v>
@@ -10991,13 +10991,13 @@
         <v>101.0</v>
       </c>
       <c r="CT25" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="CU25" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="CV25" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="CW25" t="n" s="10">
         <v>101.3</v>
@@ -11015,7 +11015,7 @@
         <v>101.8</v>
       </c>
       <c r="DB25" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="DC25" t="n" s="10">
         <v>101.9</v>
@@ -11045,13 +11045,13 @@
         <v>102.3</v>
       </c>
       <c r="DL25" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="DM25" t="n" s="10">
         <v>102.5</v>
       </c>
       <c r="DN25" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="DO25" t="n" s="10">
         <v>103.0</v>
@@ -11096,7 +11096,7 @@
         <v>105.8</v>
       </c>
       <c r="EC25" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="ED25" t="n" s="10">
         <v>106.3</v>
@@ -12346,13 +12346,13 @@
         <v>77.9</v>
       </c>
       <c r="N29" t="n" s="10">
-        <v>79.2</v>
+        <v>79.1</v>
       </c>
       <c r="O29" t="n" s="10">
         <v>78.5</v>
       </c>
       <c r="P29" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="Q29" t="n" s="10">
         <v>80.1</v>
@@ -12433,7 +12433,7 @@
         <v>77.2</v>
       </c>
       <c r="AQ29" t="n" s="10">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
       <c r="AR29" t="n" s="10">
         <v>78.3</v>
@@ -12484,7 +12484,7 @@
         <v>79.4</v>
       </c>
       <c r="BH29" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="BI29" t="n" s="10">
         <v>80.0</v>
@@ -12652,7 +12652,7 @@
         <v>87.2</v>
       </c>
       <c r="DL29" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="DM29" t="n" s="10">
         <v>85.4</v>
@@ -12667,7 +12667,7 @@
         <v>87.5</v>
       </c>
       <c r="DQ29" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="DR29" t="n" s="10">
         <v>87.3</v>
@@ -12688,7 +12688,7 @@
         <v>86.0</v>
       </c>
       <c r="DX29" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="DY29" t="n" s="10">
         <v>89.8</v>
@@ -12706,7 +12706,7 @@
         <v>89.5</v>
       </c>
       <c r="ED29" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
     </row>
     <row r="30">
@@ -12753,13 +12753,13 @@
         <v>78.9</v>
       </c>
       <c r="P30" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="Q30" t="n" s="10">
         <v>79.5</v>
       </c>
       <c r="R30" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="S30" t="n" s="10">
         <v>79.9</v>
@@ -12822,7 +12822,7 @@
         <v>78.9</v>
       </c>
       <c r="AM30" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="AN30" t="n" s="10">
         <v>78.7</v>
@@ -12846,10 +12846,10 @@
         <v>78.2</v>
       </c>
       <c r="AU30" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="AV30" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="AW30" t="n" s="10">
         <v>78.1</v>
@@ -12936,7 +12936,7 @@
         <v>80.4</v>
       </c>
       <c r="BY30" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="BZ30" t="n" s="10">
         <v>80.5</v>
@@ -14335,7 +14335,7 @@
         <v>171.9</v>
       </c>
       <c r="F35" t="n" s="10">
-        <v>164.9</v>
+        <v>165.0</v>
       </c>
       <c r="G35" t="n" s="10">
         <v>166.1</v>
@@ -14404,7 +14404,7 @@
         <v>181.2</v>
       </c>
       <c r="AC35" t="n" s="10">
-        <v>178.1</v>
+        <v>178.0</v>
       </c>
       <c r="AD35" t="n" s="10">
         <v>179.9</v>
@@ -14437,7 +14437,7 @@
         <v>175.3</v>
       </c>
       <c r="AN35" t="n" s="10">
-        <v>172.0</v>
+        <v>171.9</v>
       </c>
       <c r="AO35" t="n" s="10">
         <v>174.3</v>
@@ -14548,7 +14548,7 @@
         <v>155.2</v>
       </c>
       <c r="BY35" t="n" s="10">
-        <v>153.4</v>
+        <v>153.5</v>
       </c>
       <c r="BZ35" t="n" s="10">
         <v>155.0</v>
@@ -16337,148 +16337,148 @@
         <v>115.1</v>
       </c>
       <c r="D40" t="n" s="10">
-        <v>116.4</v>
+        <v>116.3</v>
       </c>
       <c r="E40" t="n" s="10">
-        <v>119.0</v>
+        <v>118.9</v>
       </c>
       <c r="F40" t="n" s="10">
-        <v>114.3</v>
+        <v>114.2</v>
       </c>
       <c r="G40" t="n" s="10">
-        <v>115.4</v>
+        <v>115.3</v>
       </c>
       <c r="H40" t="n" s="10">
-        <v>116.5</v>
+        <v>116.3</v>
       </c>
       <c r="I40" t="n" s="10">
-        <v>118.6</v>
+        <v>118.4</v>
       </c>
       <c r="J40" t="n" s="10">
-        <v>118.1</v>
+        <v>117.9</v>
       </c>
       <c r="K40" t="n" s="10">
-        <v>120.1</v>
+        <v>119.9</v>
       </c>
       <c r="L40" t="n" s="10">
-        <v>122.7</v>
+        <v>122.6</v>
       </c>
       <c r="M40" t="n" s="10">
-        <v>123.2</v>
+        <v>123.1</v>
       </c>
       <c r="N40" t="n" s="10">
-        <v>122.8</v>
+        <v>124.4</v>
       </c>
       <c r="O40" t="n" s="10">
-        <v>125.3</v>
+        <v>125.1</v>
       </c>
       <c r="P40" t="n" s="10">
-        <v>125.0</v>
+        <v>124.9</v>
       </c>
       <c r="Q40" t="n" s="10">
-        <v>126.2</v>
+        <v>126.1</v>
       </c>
       <c r="R40" t="n" s="10">
-        <v>127.2</v>
+        <v>127.1</v>
       </c>
       <c r="S40" t="n" s="10">
+        <v>128.4</v>
+      </c>
+      <c r="T40" t="n" s="10">
+        <v>129.6</v>
+      </c>
+      <c r="U40" t="n" s="10">
+        <v>128.3</v>
+      </c>
+      <c r="V40" t="n" s="10">
+        <v>127.8</v>
+      </c>
+      <c r="W40" t="n" s="10">
+        <v>129.8</v>
+      </c>
+      <c r="X40" t="n" s="10">
+        <v>126.4</v>
+      </c>
+      <c r="Y40" t="n" s="10">
+        <v>127.4</v>
+      </c>
+      <c r="Z40" t="n" s="10">
+        <v>131.5</v>
+      </c>
+      <c r="AA40" t="n" s="10">
+        <v>126.1</v>
+      </c>
+      <c r="AB40" t="n" s="10">
         <v>128.6</v>
       </c>
-      <c r="T40" t="n" s="10">
-        <v>129.8</v>
-      </c>
-      <c r="U40" t="n" s="10">
+      <c r="AC40" t="n" s="10">
+        <v>126.8</v>
+      </c>
+      <c r="AD40" t="n" s="10">
         <v>128.5</v>
       </c>
-      <c r="V40" t="n" s="10">
-        <v>128.0</v>
-      </c>
-      <c r="W40" t="n" s="10">
-        <v>130.0</v>
-      </c>
-      <c r="X40" t="n" s="10">
-        <v>126.6</v>
-      </c>
-      <c r="Y40" t="n" s="10">
-        <v>127.6</v>
-      </c>
-      <c r="Z40" t="n" s="10">
-        <v>129.8</v>
-      </c>
-      <c r="AA40" t="n" s="10">
+      <c r="AE40" t="n" s="10">
+        <v>126.5</v>
+      </c>
+      <c r="AF40" t="n" s="10">
+        <v>126.4</v>
+      </c>
+      <c r="AG40" t="n" s="10">
+        <v>126.5</v>
+      </c>
+      <c r="AH40" t="n" s="10">
+        <v>128.6</v>
+      </c>
+      <c r="AI40" t="n" s="10">
+        <v>124.5</v>
+      </c>
+      <c r="AJ40" t="n" s="10">
+        <v>127.5</v>
+      </c>
+      <c r="AK40" t="n" s="10">
+        <v>127.3</v>
+      </c>
+      <c r="AL40" t="n" s="10">
+        <v>124.8</v>
+      </c>
+      <c r="AM40" t="n" s="10">
+        <v>126.7</v>
+      </c>
+      <c r="AN40" t="n" s="10">
+        <v>124.5</v>
+      </c>
+      <c r="AO40" t="n" s="10">
         <v>126.3</v>
       </c>
-      <c r="AB40" t="n" s="10">
-        <v>128.8</v>
-      </c>
-      <c r="AC40" t="n" s="10">
-        <v>127.0</v>
-      </c>
-      <c r="AD40" t="n" s="10">
-        <v>128.7</v>
-      </c>
-      <c r="AE40" t="n" s="10">
-        <v>126.7</v>
-      </c>
-      <c r="AF40" t="n" s="10">
-        <v>126.5</v>
-      </c>
-      <c r="AG40" t="n" s="10">
-        <v>126.6</v>
-      </c>
-      <c r="AH40" t="n" s="10">
-        <v>128.7</v>
-      </c>
-      <c r="AI40" t="n" s="10">
-        <v>124.6</v>
-      </c>
-      <c r="AJ40" t="n" s="10">
-        <v>127.6</v>
-      </c>
-      <c r="AK40" t="n" s="10">
-        <v>127.4</v>
-      </c>
-      <c r="AL40" t="n" s="10">
+      <c r="AP40" t="n" s="10">
+        <v>123.9</v>
+      </c>
+      <c r="AQ40" t="n" s="10">
+        <v>126.0</v>
+      </c>
+      <c r="AR40" t="n" s="10">
         <v>124.0</v>
       </c>
-      <c r="AM40" t="n" s="10">
-        <v>126.8</v>
-      </c>
-      <c r="AN40" t="n" s="10">
-        <v>124.6</v>
-      </c>
-      <c r="AO40" t="n" s="10">
-        <v>126.4</v>
-      </c>
-      <c r="AP40" t="n" s="10">
-        <v>124.0</v>
-      </c>
-      <c r="AQ40" t="n" s="10">
-        <v>126.1</v>
-      </c>
-      <c r="AR40" t="n" s="10">
-        <v>124.1</v>
-      </c>
       <c r="AS40" t="n" s="10">
-        <v>124.0</v>
+        <v>123.9</v>
       </c>
       <c r="AT40" t="n" s="10">
         <v>123.6</v>
       </c>
       <c r="AU40" t="n" s="10">
-        <v>124.6</v>
+        <v>124.7</v>
       </c>
       <c r="AV40" t="n" s="10">
         <v>123.5</v>
       </c>
       <c r="AW40" t="n" s="10">
-        <v>121.7</v>
+        <v>121.8</v>
       </c>
       <c r="AX40" t="n" s="10">
-        <v>124.2</v>
+        <v>124.1</v>
       </c>
       <c r="AY40" t="n" s="10">
-        <v>124.0</v>
+        <v>123.9</v>
       </c>
       <c r="AZ40" t="n" s="10">
         <v>123.9</v>
@@ -16493,7 +16493,7 @@
         <v>123.1</v>
       </c>
       <c r="BD40" t="n" s="10">
-        <v>123.1</v>
+        <v>123.2</v>
       </c>
       <c r="BE40" t="n" s="10">
         <v>122.9</v>
@@ -16508,115 +16508,115 @@
         <v>122.2</v>
       </c>
       <c r="BI40" t="n" s="10">
-        <v>121.7</v>
+        <v>121.6</v>
       </c>
       <c r="BJ40" t="n" s="10">
-        <v>125.1</v>
+        <v>124.9</v>
       </c>
       <c r="BK40" t="n" s="10">
-        <v>114.8</v>
+        <v>114.6</v>
       </c>
       <c r="BL40" t="n" s="10">
-        <v>115.7</v>
+        <v>115.6</v>
       </c>
       <c r="BM40" t="n" s="10">
         <v>117.4</v>
       </c>
       <c r="BN40" t="n" s="10">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="BO40" t="n" s="10">
-        <v>111.9</v>
+        <v>112.9</v>
       </c>
       <c r="BP40" t="n" s="10">
-        <v>112.6</v>
+        <v>112.5</v>
       </c>
       <c r="BQ40" t="n" s="10">
         <v>114.6</v>
       </c>
       <c r="BR40" t="n" s="10">
-        <v>111.1</v>
+        <v>111.0</v>
       </c>
       <c r="BS40" t="n" s="10">
         <v>112.1</v>
       </c>
       <c r="BT40" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="BU40" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="BV40" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BW40" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="BX40" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="BY40" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="BZ40" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="CA40" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="CB40" t="n" s="10">
+        <v>112.9</v>
+      </c>
+      <c r="CC40" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="CD40" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="CE40" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="CF40" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="CG40" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="CH40" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="CI40" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="CJ40" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="CK40" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="CL40" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="CM40" t="n" s="10">
         <v>110.8</v>
       </c>
-      <c r="BU40" t="n" s="10">
-        <v>110.9</v>
-      </c>
-      <c r="BV40" t="n" s="10">
-        <v>111.1</v>
-      </c>
-      <c r="BW40" t="n" s="10">
-        <v>111.0</v>
-      </c>
-      <c r="BX40" t="n" s="10">
-        <v>113.7</v>
-      </c>
-      <c r="BY40" t="n" s="10">
-        <v>112.0</v>
-      </c>
-      <c r="BZ40" t="n" s="10">
-        <v>113.3</v>
-      </c>
-      <c r="CA40" t="n" s="10">
-        <v>114.4</v>
-      </c>
-      <c r="CB40" t="n" s="10">
-        <v>113.1</v>
-      </c>
-      <c r="CC40" t="n" s="10">
-        <v>110.2</v>
-      </c>
-      <c r="CD40" t="n" s="10">
-        <v>112.2</v>
-      </c>
-      <c r="CE40" t="n" s="10">
-        <v>114.1</v>
-      </c>
-      <c r="CF40" t="n" s="10">
-        <v>111.4</v>
-      </c>
-      <c r="CG40" t="n" s="10">
-        <v>111.9</v>
-      </c>
-      <c r="CH40" t="n" s="10">
-        <v>112.3</v>
-      </c>
-      <c r="CI40" t="n" s="10">
-        <v>111.3</v>
-      </c>
-      <c r="CJ40" t="n" s="10">
-        <v>110.3</v>
-      </c>
-      <c r="CK40" t="n" s="10">
+      <c r="CN40" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="CO40" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="CL40" t="n" s="10">
-        <v>110.4</v>
-      </c>
-      <c r="CM40" t="n" s="10">
-        <v>109.8</v>
-      </c>
-      <c r="CN40" t="n" s="10">
-        <v>110.9</v>
-      </c>
-      <c r="CO40" t="n" s="10">
-        <v>110.2</v>
-      </c>
       <c r="CP40" t="n" s="10">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="CQ40" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="CR40" t="n" s="10">
         <v>110.1</v>
       </c>
       <c r="CS40" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="CT40" t="n" s="10">
         <v>109.9</v>
@@ -16673,7 +16673,7 @@
         <v>105.9</v>
       </c>
       <c r="DL40" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="DM40" t="n" s="10">
         <v>105.1</v>
@@ -16724,7 +16724,7 @@
         <v>102.8</v>
       </c>
       <c r="EC40" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="ED40" t="n" s="10">
         <v>103.0</v>
@@ -16747,19 +16747,19 @@
         <v>116.3</v>
       </c>
       <c r="G41" t="n" s="10">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="H41" t="n" s="10">
         <v>117.3</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>118.2</v>
+        <v>118.1</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>119.2</v>
+        <v>119.3</v>
       </c>
       <c r="K41" t="n" s="10">
-        <v>120.3</v>
+        <v>120.4</v>
       </c>
       <c r="L41" t="n" s="10">
         <v>121.4</v>
@@ -16771,7 +16771,7 @@
         <v>123.4</v>
       </c>
       <c r="O41" t="n" s="10">
-        <v>124.4</v>
+        <v>124.5</v>
       </c>
       <c r="P41" t="n" s="10">
         <v>125.5</v>
@@ -16780,52 +16780,52 @@
         <v>126.3</v>
       </c>
       <c r="R41" t="n" s="10">
-        <v>127.1</v>
+        <v>127.0</v>
       </c>
       <c r="S41" t="n" s="10">
+        <v>127.6</v>
+      </c>
+      <c r="T41" t="n" s="10">
+        <v>127.9</v>
+      </c>
+      <c r="U41" t="n" s="10">
+        <v>128.1</v>
+      </c>
+      <c r="V41" t="n" s="10">
+        <v>128.2</v>
+      </c>
+      <c r="W41" t="n" s="10">
+        <v>128.2</v>
+      </c>
+      <c r="X41" t="n" s="10">
+        <v>128.1</v>
+      </c>
+      <c r="Y41" t="n" s="10">
+        <v>128.0</v>
+      </c>
+      <c r="Z41" t="n" s="10">
+        <v>127.8</v>
+      </c>
+      <c r="AA41" t="n" s="10">
         <v>127.7</v>
       </c>
-      <c r="T41" t="n" s="10">
-        <v>128.1</v>
-      </c>
-      <c r="U41" t="n" s="10">
-        <v>128.3</v>
-      </c>
-      <c r="V41" t="n" s="10">
-        <v>128.5</v>
-      </c>
-      <c r="W41" t="n" s="10">
-        <v>128.5</v>
-      </c>
-      <c r="X41" t="n" s="10">
-        <v>128.4</v>
-      </c>
-      <c r="Y41" t="n" s="10">
-        <v>128.4</v>
-      </c>
-      <c r="Z41" t="n" s="10">
-        <v>128.2</v>
-      </c>
-      <c r="AA41" t="n" s="10">
-        <v>128.1</v>
-      </c>
       <c r="AB41" t="n" s="10">
-        <v>127.9</v>
+        <v>127.5</v>
       </c>
       <c r="AC41" t="n" s="10">
-        <v>127.7</v>
+        <v>127.4</v>
       </c>
       <c r="AD41" t="n" s="10">
-        <v>127.5</v>
+        <v>127.3</v>
       </c>
       <c r="AE41" t="n" s="10">
-        <v>127.4</v>
+        <v>127.2</v>
       </c>
       <c r="AF41" t="n" s="10">
-        <v>127.2</v>
+        <v>127.0</v>
       </c>
       <c r="AG41" t="n" s="10">
-        <v>127.1</v>
+        <v>127.0</v>
       </c>
       <c r="AH41" t="n" s="10">
         <v>126.9</v>
@@ -16834,16 +16834,16 @@
         <v>126.7</v>
       </c>
       <c r="AJ41" t="n" s="10">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
       <c r="AK41" t="n" s="10">
-        <v>126.2</v>
+        <v>126.3</v>
       </c>
       <c r="AL41" t="n" s="10">
         <v>125.9</v>
       </c>
       <c r="AM41" t="n" s="10">
-        <v>125.6</v>
+        <v>125.7</v>
       </c>
       <c r="AN41" t="n" s="10">
         <v>125.4</v>
@@ -16882,7 +16882,7 @@
         <v>123.4</v>
       </c>
       <c r="AZ41" t="n" s="10">
-        <v>123.3</v>
+        <v>123.2</v>
       </c>
       <c r="BA41" t="n" s="10">
         <v>123.2</v>
@@ -16900,16 +16900,16 @@
         <v>122.5</v>
       </c>
       <c r="BF41" t="n" s="10">
-        <v>122.0</v>
+        <v>122.1</v>
       </c>
       <c r="BG41" t="n" s="10">
         <v>121.5</v>
       </c>
       <c r="BH41" t="n" s="10">
-        <v>120.8</v>
+        <v>120.9</v>
       </c>
       <c r="BI41" t="n" s="10">
-        <v>120.0</v>
+        <v>120.1</v>
       </c>
       <c r="BJ41" t="n" s="10">
         <v>119.2</v>
@@ -16918,88 +16918,88 @@
         <v>118.2</v>
       </c>
       <c r="BL41" t="n" s="10">
-        <v>117.1</v>
+        <v>117.2</v>
       </c>
       <c r="BM41" t="n" s="10">
-        <v>116.1</v>
+        <v>116.2</v>
       </c>
       <c r="BN41" t="n" s="10">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="BO41" t="n" s="10">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="BP41" t="n" s="10">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="BQ41" t="n" s="10">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="BR41" t="n" s="10">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="BS41" t="n" s="10">
         <v>111.9</v>
       </c>
       <c r="BT41" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BU41" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BV41" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BW41" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BX41" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BY41" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="BU41" t="n" s="10">
+      <c r="BZ41" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="CA41" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="CB41" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="CC41" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="CD41" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="CE41" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="CF41" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="CG41" t="n" s="10">
         <v>111.7</v>
       </c>
-      <c r="BV41" t="n" s="10">
-        <v>111.8</v>
-      </c>
-      <c r="BW41" t="n" s="10">
-        <v>111.9</v>
-      </c>
-      <c r="BX41" t="n" s="10">
-        <v>112.1</v>
-      </c>
-      <c r="BY41" t="n" s="10">
-        <v>112.3</v>
-      </c>
-      <c r="BZ41" t="n" s="10">
-        <v>112.4</v>
-      </c>
-      <c r="CA41" t="n" s="10">
-        <v>112.5</v>
-      </c>
-      <c r="CB41" t="n" s="10">
-        <v>112.5</v>
-      </c>
-      <c r="CC41" t="n" s="10">
-        <v>112.4</v>
-      </c>
-      <c r="CD41" t="n" s="10">
-        <v>112.3</v>
-      </c>
-      <c r="CE41" t="n" s="10">
-        <v>112.3</v>
-      </c>
-      <c r="CF41" t="n" s="10">
-        <v>112.1</v>
-      </c>
-      <c r="CG41" t="n" s="10">
-        <v>111.8</v>
-      </c>
       <c r="CH41" t="n" s="10">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="CI41" t="n" s="10">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="CJ41" t="n" s="10">
         <v>111.0</v>
       </c>
       <c r="CK41" t="n" s="10">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="CL41" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="CM41" t="n" s="10">
         <v>110.5</v>
-      </c>
-      <c r="CM41" t="n" s="10">
-        <v>110.4</v>
       </c>
       <c r="CN41" t="n" s="10">
         <v>110.3</v>
@@ -18347,7 +18347,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="n" s="10">
-        <v>168.7</v>
+        <v>168.6</v>
       </c>
       <c r="D46" t="n" s="10">
         <v>172.1</v>
@@ -18359,7 +18359,7 @@
         <v>170.3</v>
       </c>
       <c r="G46" t="n" s="10">
-        <v>170.2</v>
+        <v>170.1</v>
       </c>
       <c r="H46" t="n" s="10">
         <v>171.5</v>
@@ -18380,7 +18380,7 @@
         <v>173.2</v>
       </c>
       <c r="N46" t="n" s="10">
-        <v>185.0</v>
+        <v>185.1</v>
       </c>
       <c r="O46" t="n" s="10">
         <v>172.1</v>
@@ -18437,7 +18437,7 @@
         <v>182.6</v>
       </c>
       <c r="AG46" t="n" s="10">
-        <v>181.8</v>
+        <v>181.9</v>
       </c>
       <c r="AH46" t="n" s="10">
         <v>183.7</v>
@@ -18473,19 +18473,19 @@
         <v>175.6</v>
       </c>
       <c r="AS46" t="n" s="10">
-        <v>176.8</v>
+        <v>176.9</v>
       </c>
       <c r="AT46" t="n" s="10">
-        <v>175.2</v>
+        <v>175.3</v>
       </c>
       <c r="AU46" t="n" s="10">
-        <v>176.1</v>
+        <v>176.2</v>
       </c>
       <c r="AV46" t="n" s="10">
-        <v>175.9</v>
+        <v>176.0</v>
       </c>
       <c r="AW46" t="n" s="10">
-        <v>174.1</v>
+        <v>174.0</v>
       </c>
       <c r="AX46" t="n" s="10">
         <v>173.5</v>
@@ -18494,88 +18494,88 @@
         <v>177.1</v>
       </c>
       <c r="AZ46" t="n" s="10">
-        <v>175.7</v>
+        <v>175.6</v>
       </c>
       <c r="BA46" t="n" s="10">
-        <v>174.6</v>
+        <v>174.2</v>
       </c>
       <c r="BB46" t="n" s="10">
-        <v>170.3</v>
+        <v>170.4</v>
       </c>
       <c r="BC46" t="n" s="10">
-        <v>170.0</v>
+        <v>170.1</v>
       </c>
       <c r="BD46" t="n" s="10">
-        <v>171.0</v>
+        <v>171.1</v>
       </c>
       <c r="BE46" t="n" s="10">
-        <v>168.5</v>
+        <v>168.6</v>
       </c>
       <c r="BF46" t="n" s="10">
-        <v>166.7</v>
+        <v>166.8</v>
       </c>
       <c r="BG46" t="n" s="10">
-        <v>164.1</v>
+        <v>164.2</v>
       </c>
       <c r="BH46" t="n" s="10">
-        <v>161.9</v>
+        <v>162.1</v>
       </c>
       <c r="BI46" t="n" s="10">
         <v>168.8</v>
       </c>
       <c r="BJ46" t="n" s="10">
-        <v>166.7</v>
+        <v>166.8</v>
       </c>
       <c r="BK46" t="n" s="10">
-        <v>147.6</v>
+        <v>147.5</v>
       </c>
       <c r="BL46" t="n" s="10">
-        <v>138.8</v>
+        <v>138.6</v>
       </c>
       <c r="BM46" t="n" s="10">
-        <v>153.7</v>
+        <v>153.0</v>
       </c>
       <c r="BN46" t="n" s="10">
-        <v>148.3</v>
+        <v>148.5</v>
       </c>
       <c r="BO46" t="n" s="10">
-        <v>149.0</v>
+        <v>149.2</v>
       </c>
       <c r="BP46" t="n" s="10">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="BQ46" t="n" s="10">
-        <v>148.4</v>
+        <v>148.5</v>
       </c>
       <c r="BR46" t="n" s="10">
-        <v>147.0</v>
+        <v>147.1</v>
       </c>
       <c r="BS46" t="n" s="10">
-        <v>148.0</v>
+        <v>148.1</v>
       </c>
       <c r="BT46" t="n" s="10">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="BU46" t="n" s="10">
-        <v>149.2</v>
+        <v>149.1</v>
       </c>
       <c r="BV46" t="n" s="10">
-        <v>153.1</v>
+        <v>153.2</v>
       </c>
       <c r="BW46" t="n" s="10">
-        <v>144.3</v>
+        <v>144.2</v>
       </c>
       <c r="BX46" t="n" s="10">
-        <v>148.0</v>
+        <v>147.9</v>
       </c>
       <c r="BY46" t="n" s="10">
-        <v>145.8</v>
+        <v>145.4</v>
       </c>
       <c r="BZ46" t="n" s="10">
-        <v>150.0</v>
+        <v>150.1</v>
       </c>
       <c r="CA46" t="n" s="10">
-        <v>147.3</v>
+        <v>147.4</v>
       </c>
       <c r="CB46" t="n" s="10">
         <v>144.3</v>
@@ -18599,7 +18599,7 @@
         <v>144.1</v>
       </c>
       <c r="CI46" t="n" s="10">
-        <v>146.3</v>
+        <v>146.2</v>
       </c>
       <c r="CJ46" t="n" s="10">
         <v>143.7</v>
@@ -18632,7 +18632,7 @@
         <v>138.9</v>
       </c>
       <c r="CT46" t="n" s="10">
-        <v>138.0</v>
+        <v>137.9</v>
       </c>
       <c r="CU46" t="n" s="10">
         <v>126.6</v>
@@ -18665,7 +18665,7 @@
         <v>123.9</v>
       </c>
       <c r="DE46" t="n" s="10">
-        <v>125.6</v>
+        <v>125.5</v>
       </c>
       <c r="DF46" t="n" s="10">
         <v>125.5</v>
@@ -18680,7 +18680,7 @@
         <v>124.8</v>
       </c>
       <c r="DJ46" t="n" s="10">
-        <v>126.5</v>
+        <v>126.4</v>
       </c>
       <c r="DK46" t="n" s="10">
         <v>128.6</v>
@@ -18713,7 +18713,7 @@
         <v>132.1</v>
       </c>
       <c r="DU46" t="n" s="10">
-        <v>128.6</v>
+        <v>128.7</v>
       </c>
       <c r="DV46" t="n" s="10">
         <v>128.8</v>
@@ -18775,13 +18775,13 @@
         <v>172.7</v>
       </c>
       <c r="L47" t="n" s="10">
-        <v>173.2</v>
+        <v>173.1</v>
       </c>
       <c r="M47" t="n" s="10">
         <v>173.7</v>
       </c>
       <c r="N47" t="n" s="10">
-        <v>174.3</v>
+        <v>174.2</v>
       </c>
       <c r="O47" t="n" s="10">
         <v>174.8</v>
@@ -18790,7 +18790,7 @@
         <v>175.3</v>
       </c>
       <c r="Q47" t="n" s="10">
-        <v>176.1</v>
+        <v>176.0</v>
       </c>
       <c r="R47" t="n" s="10">
         <v>176.9</v>
@@ -18802,7 +18802,7 @@
         <v>178.7</v>
       </c>
       <c r="U47" t="n" s="10">
-        <v>179.5</v>
+        <v>179.4</v>
       </c>
       <c r="V47" t="n" s="10">
         <v>180.2</v>
@@ -18859,7 +18859,7 @@
         <v>179.2</v>
       </c>
       <c r="AN47" t="n" s="10">
-        <v>178.4</v>
+        <v>178.3</v>
       </c>
       <c r="AO47" t="n" s="10">
         <v>177.8</v>
@@ -18892,13 +18892,13 @@
         <v>175.1</v>
       </c>
       <c r="AY47" t="n" s="10">
-        <v>174.7</v>
+        <v>174.6</v>
       </c>
       <c r="AZ47" t="n" s="10">
-        <v>174.0</v>
+        <v>173.9</v>
       </c>
       <c r="BA47" t="n" s="10">
-        <v>173.0</v>
+        <v>172.9</v>
       </c>
       <c r="BB47" t="n" s="10">
         <v>171.7</v>
@@ -18910,49 +18910,49 @@
         <v>169.2</v>
       </c>
       <c r="BE47" t="n" s="10">
-        <v>167.5</v>
+        <v>167.7</v>
       </c>
       <c r="BF47" t="n" s="10">
-        <v>165.7</v>
+        <v>165.9</v>
       </c>
       <c r="BG47" t="n" s="10">
-        <v>163.8</v>
+        <v>164.0</v>
       </c>
       <c r="BH47" t="n" s="10">
-        <v>161.7</v>
+        <v>162.0</v>
       </c>
       <c r="BI47" t="n" s="10">
-        <v>159.6</v>
+        <v>159.9</v>
       </c>
       <c r="BJ47" t="n" s="10">
-        <v>157.6</v>
+        <v>158.0</v>
       </c>
       <c r="BK47" t="n" s="10">
-        <v>155.6</v>
+        <v>156.0</v>
       </c>
       <c r="BL47" t="n" s="10">
-        <v>153.9</v>
+        <v>154.3</v>
       </c>
       <c r="BM47" t="n" s="10">
-        <v>152.2</v>
+        <v>152.6</v>
       </c>
       <c r="BN47" t="n" s="10">
-        <v>150.7</v>
+        <v>151.1</v>
       </c>
       <c r="BO47" t="n" s="10">
-        <v>149.6</v>
+        <v>149.9</v>
       </c>
       <c r="BP47" t="n" s="10">
-        <v>148.8</v>
+        <v>149.0</v>
       </c>
       <c r="BQ47" t="n" s="10">
-        <v>148.2</v>
+        <v>148.4</v>
       </c>
       <c r="BR47" t="n" s="10">
+        <v>148.0</v>
+      </c>
+      <c r="BS47" t="n" s="10">
         <v>147.8</v>
-      </c>
-      <c r="BS47" t="n" s="10">
-        <v>147.7</v>
       </c>
       <c r="BT47" t="n" s="10">
         <v>147.6</v>
@@ -18961,13 +18961,13 @@
         <v>147.4</v>
       </c>
       <c r="BV47" t="n" s="10">
-        <v>147.2</v>
+        <v>147.1</v>
       </c>
       <c r="BW47" t="n" s="10">
         <v>146.9</v>
       </c>
       <c r="BX47" t="n" s="10">
-        <v>146.6</v>
+        <v>146.5</v>
       </c>
       <c r="BY47" t="n" s="10">
         <v>146.3</v>
@@ -18985,7 +18985,7 @@
         <v>144.7</v>
       </c>
       <c r="CD47" t="n" s="10">
-        <v>144.4</v>
+        <v>144.3</v>
       </c>
       <c r="CE47" t="n" s="10">
         <v>144.0</v>
@@ -19087,13 +19087,13 @@
         <v>126.3</v>
       </c>
       <c r="DL47" t="n" s="10">
-        <v>126.8</v>
+        <v>126.7</v>
       </c>
       <c r="DM47" t="n" s="10">
         <v>127.2</v>
       </c>
       <c r="DN47" t="n" s="10">
-        <v>127.6</v>
+        <v>127.5</v>
       </c>
       <c r="DO47" t="n" s="10">
         <v>127.9</v>
@@ -19135,13 +19135,13 @@
         <v>125.5</v>
       </c>
       <c r="EB47" t="n" s="10">
-        <v>124.3</v>
+        <v>124.4</v>
       </c>
       <c r="EC47" t="n" s="10">
         <v>123.0</v>
       </c>
       <c r="ED47" t="n" s="10">
-        <v>121.5</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="48">
@@ -20355,13 +20355,13 @@
         <v>35</v>
       </c>
       <c r="C51" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="D51" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="E51" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="F51" t="n" s="10">
         <v>103.2</v>
@@ -20382,28 +20382,28 @@
         <v>106.8</v>
       </c>
       <c r="L51" t="n" s="10">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="M51" t="n" s="10">
         <v>106.1</v>
       </c>
       <c r="N51" t="n" s="10">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="O51" t="n" s="10">
         <v>105.2</v>
       </c>
       <c r="P51" t="n" s="10">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="Q51" t="n" s="10">
         <v>106.2</v>
       </c>
       <c r="R51" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="S51" t="n" s="10">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="T51" t="n" s="10">
         <v>111.0</v>
@@ -20430,7 +20430,7 @@
         <v>114.3</v>
       </c>
       <c r="AB51" t="n" s="10">
-        <v>115.0</v>
+        <v>115.1</v>
       </c>
       <c r="AC51" t="n" s="10">
         <v>115.1</v>
@@ -20445,7 +20445,7 @@
         <v>114.2</v>
       </c>
       <c r="AG51" t="n" s="10">
-        <v>113.5</v>
+        <v>113.6</v>
       </c>
       <c r="AH51" t="n" s="10">
         <v>114.8</v>
@@ -20469,16 +20469,16 @@
         <v>110.1</v>
       </c>
       <c r="AO51" t="n" s="10">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="AP51" t="n" s="10">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="AQ51" t="n" s="10">
         <v>112.7</v>
       </c>
       <c r="AR51" t="n" s="10">
-        <v>110.9</v>
+        <v>111.0</v>
       </c>
       <c r="AS51" t="n" s="10">
         <v>112.0</v>
@@ -20493,7 +20493,7 @@
         <v>111.6</v>
       </c>
       <c r="AW51" t="n" s="10">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="AX51" t="n" s="10">
         <v>108.2</v>
@@ -20502,10 +20502,10 @@
         <v>110.9</v>
       </c>
       <c r="AZ51" t="n" s="10">
-        <v>110.1</v>
+        <v>110.0</v>
       </c>
       <c r="BA51" t="n" s="10">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="BB51" t="n" s="10">
         <v>106.9</v>
@@ -20514,7 +20514,7 @@
         <v>106.7</v>
       </c>
       <c r="BD51" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="BE51" t="n" s="10">
         <v>105.6</v>
@@ -20535,16 +20535,16 @@
         <v>99.7</v>
       </c>
       <c r="BK51" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="BL51" t="n" s="10">
         <v>84.8</v>
       </c>
       <c r="BM51" t="n" s="10">
+        <v>94.6</v>
+      </c>
+      <c r="BN51" t="n" s="10">
         <v>94.5</v>
-      </c>
-      <c r="BN51" t="n" s="10">
-        <v>94.4</v>
       </c>
       <c r="BO51" t="n" s="10">
         <v>94.9</v>
@@ -20565,10 +20565,10 @@
         <v>97.4</v>
       </c>
       <c r="BU51" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="BV51" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="BW51" t="n" s="10">
         <v>97.9</v>
@@ -20583,13 +20583,13 @@
         <v>102.0</v>
       </c>
       <c r="CA51" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CB51" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="CC51" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="CD51" t="n" s="10">
         <v>101.4</v>
@@ -20631,7 +20631,7 @@
         <v>98.7</v>
       </c>
       <c r="CQ51" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="CR51" t="n" s="10">
         <v>98.1</v>
@@ -20655,7 +20655,7 @@
         <v>92.7</v>
       </c>
       <c r="CY51" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="CZ51" t="n" s="10">
         <v>91.9</v>
@@ -20688,19 +20688,19 @@
         <v>94.9</v>
       </c>
       <c r="DJ51" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="DK51" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="DL51" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DM51" t="n" s="10">
         <v>94.9</v>
       </c>
       <c r="DN51" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="DO51" t="n" s="10">
         <v>94.7</v>
@@ -20721,7 +20721,7 @@
         <v>100.2</v>
       </c>
       <c r="DU51" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="DV51" t="n" s="10">
         <v>99.8</v>
@@ -20795,7 +20795,7 @@
         <v>106.9</v>
       </c>
       <c r="P52" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="Q52" t="n" s="10">
         <v>107.7</v>
@@ -20816,7 +20816,7 @@
         <v>110.6</v>
       </c>
       <c r="W52" t="n" s="10">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="X52" t="n" s="10">
         <v>111.6</v>
@@ -20858,7 +20858,7 @@
         <v>114.4</v>
       </c>
       <c r="AK52" t="n" s="10">
-        <v>114.1</v>
+        <v>114.0</v>
       </c>
       <c r="AL52" t="n" s="10">
         <v>113.7</v>
@@ -20879,7 +20879,7 @@
         <v>112.2</v>
       </c>
       <c r="AR52" t="n" s="10">
-        <v>112.0</v>
+        <v>111.9</v>
       </c>
       <c r="AS52" t="n" s="10">
         <v>111.7</v>
@@ -20903,7 +20903,7 @@
         <v>109.6</v>
       </c>
       <c r="AZ52" t="n" s="10">
-        <v>109.1</v>
+        <v>109.0</v>
       </c>
       <c r="BA52" t="n" s="10">
         <v>108.4</v>
@@ -20948,16 +20948,16 @@
         <v>95.7</v>
       </c>
       <c r="BO52" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="BP52" t="n" s="10">
         <v>95.2</v>
       </c>
       <c r="BQ52" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="BR52" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="BS52" t="n" s="10">
         <v>96.1</v>
@@ -20972,16 +20972,16 @@
         <v>98.0</v>
       </c>
       <c r="BW52" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BX52" t="n" s="10">
         <v>99.4</v>
       </c>
       <c r="BY52" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="BZ52" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="CA52" t="n" s="10">
         <v>100.6</v>
@@ -21050,7 +21050,7 @@
         <v>93.3</v>
       </c>
       <c r="CW52" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="CX52" t="n" s="10">
         <v>92.3</v>
@@ -21089,7 +21089,7 @@
         <v>94.0</v>
       </c>
       <c r="DJ52" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="DK52" t="n" s="10">
         <v>94.6</v>
@@ -21131,7 +21131,7 @@
         <v>99.9</v>
       </c>
       <c r="DX52" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="DY52" t="n" s="10">
         <v>100.4</v>
@@ -22401,7 +22401,7 @@
         <v>25.1</v>
       </c>
       <c r="N57" t="n" s="10">
-        <v>25.0</v>
+        <v>24.9</v>
       </c>
       <c r="O57" t="n" s="10">
         <v>23.8</v>
@@ -22434,7 +22434,7 @@
         <v>24.2</v>
       </c>
       <c r="Y57" t="n" s="10">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Z57" t="n" s="10">
         <v>24.4</v>
@@ -22455,7 +22455,7 @@
         <v>24.6</v>
       </c>
       <c r="AF57" t="n" s="10">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AG57" t="n" s="10">
         <v>24.0</v>
@@ -22482,13 +22482,13 @@
         <v>23.9</v>
       </c>
       <c r="AO57" t="n" s="10">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AP57" t="n" s="10">
         <v>24.2</v>
       </c>
       <c r="AQ57" t="n" s="10">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AR57" t="n" s="10">
         <v>23.8</v>
@@ -22503,7 +22503,7 @@
         <v>24.8</v>
       </c>
       <c r="AV57" t="n" s="10">
-        <v>24.9</v>
+        <v>25.0</v>
       </c>
       <c r="AW57" t="n" s="10">
         <v>24.8</v>
@@ -22542,7 +22542,7 @@
         <v>26.1</v>
       </c>
       <c r="BI57" t="n" s="10">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="BJ57" t="n" s="10">
         <v>26.4</v>
@@ -22578,7 +22578,7 @@
         <v>30.6</v>
       </c>
       <c r="BU57" t="n" s="10">
-        <v>29.1</v>
+        <v>29.0</v>
       </c>
       <c r="BV57" t="n" s="10">
         <v>29.7</v>
@@ -22617,7 +22617,7 @@
         <v>33.8</v>
       </c>
       <c r="CH57" t="n" s="10">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="CI57" t="n" s="10">
         <v>34.4</v>
@@ -22668,7 +22668,7 @@
         <v>30.3</v>
       </c>
       <c r="CY57" t="n" s="10">
-        <v>31.9</v>
+        <v>32.0</v>
       </c>
       <c r="CZ57" t="n" s="10">
         <v>30.5</v>
@@ -22707,13 +22707,13 @@
         <v>30.8</v>
       </c>
       <c r="DL57" t="n" s="10">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="DM57" t="n" s="10">
         <v>31.3</v>
       </c>
       <c r="DN57" t="n" s="10">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="DO57" t="n" s="10">
         <v>31.8</v>
@@ -22734,10 +22734,10 @@
         <v>33.6</v>
       </c>
       <c r="DU57" t="n" s="10">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="DV57" t="n" s="10">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="DW57" t="n" s="10">
         <v>35.2</v>
@@ -22758,7 +22758,7 @@
         <v>36.8</v>
       </c>
       <c r="EC57" t="n" s="10">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="ED57" t="n" s="10">
         <v>36.2</v>
@@ -22799,7 +22799,7 @@
         <v>24.4</v>
       </c>
       <c r="M58" t="n" s="10">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N58" t="n" s="10">
         <v>24.3</v>
@@ -22880,7 +22880,7 @@
         <v>24.1</v>
       </c>
       <c r="AN58" t="n" s="10">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AO58" t="n" s="10">
         <v>24.2</v>
@@ -22907,7 +22907,7 @@
         <v>25.0</v>
       </c>
       <c r="AW58" t="n" s="10">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="AX58" t="n" s="10">
         <v>25.3</v>
@@ -22997,7 +22997,7 @@
         <v>32.1</v>
       </c>
       <c r="CA58" t="n" s="10">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="CB58" t="n" s="10">
         <v>32.8</v>
@@ -23036,7 +23036,7 @@
         <v>34.0</v>
       </c>
       <c r="CN58" t="n" s="10">
-        <v>33.9</v>
+        <v>34.0</v>
       </c>
       <c r="CO58" t="n" s="10">
         <v>33.8</v>
@@ -23108,7 +23108,7 @@
         <v>31.1</v>
       </c>
       <c r="DL58" t="n" s="10">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="DM58" t="n" s="10">
         <v>31.3</v>
@@ -23156,10 +23156,10 @@
         <v>36.2</v>
       </c>
       <c r="EB58" t="n" s="10">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="EC58" t="n" s="10">
-        <v>37.1</v>
+        <v>37.0</v>
       </c>
       <c r="ED58" t="n" s="10">
         <v>37.5</v>
@@ -24376,7 +24376,7 @@
         <v>35</v>
       </c>
       <c r="C62" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="D62" t="n" s="10">
         <v>95.9</v>
@@ -24391,7 +24391,7 @@
         <v>97.2</v>
       </c>
       <c r="H62" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="I62" t="n" s="10">
         <v>96.1</v>
@@ -24403,25 +24403,25 @@
         <v>97.3</v>
       </c>
       <c r="L62" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="M62" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="N62" t="n" s="10">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="O62" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="P62" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="Q62" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="R62" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="S62" t="n" s="10">
         <v>92.5</v>
@@ -24463,7 +24463,7 @@
         <v>95.3</v>
       </c>
       <c r="AF62" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="AG62" t="n" s="10">
         <v>93.1</v>
@@ -24487,13 +24487,13 @@
         <v>91.7</v>
       </c>
       <c r="AN62" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="AO62" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="AP62" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="AQ62" t="n" s="10">
         <v>91.4</v>
@@ -24526,16 +24526,16 @@
         <v>94.7</v>
       </c>
       <c r="BA62" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="BB62" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="BC62" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="BD62" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BE62" t="n" s="10">
         <v>94.7</v>
@@ -24562,13 +24562,13 @@
         <v>94.8</v>
       </c>
       <c r="BM62" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="BN62" t="n" s="10">
         <v>95.1</v>
       </c>
       <c r="BO62" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="BP62" t="n" s="10">
         <v>97.5</v>
@@ -24586,10 +24586,10 @@
         <v>104.2</v>
       </c>
       <c r="BU62" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="BV62" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="BW62" t="n" s="10">
         <v>102.7</v>
@@ -24604,157 +24604,157 @@
         <v>105.8</v>
       </c>
       <c r="CA62" t="n" s="10">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="CB62" t="n" s="10">
         <v>104.8</v>
       </c>
       <c r="CC62" t="n" s="10">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="CD62" t="n" s="10">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="CE62" t="n" s="10">
         <v>104.7</v>
       </c>
       <c r="CF62" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="CG62" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="CH62" t="n" s="10">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="CI62" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="CJ62" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="CK62" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="CL62" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="CM62" t="n" s="10">
-        <v>96.9</v>
+        <v>97.1</v>
       </c>
       <c r="CN62" t="n" s="10">
-        <v>100.0</v>
+        <v>100.2</v>
       </c>
       <c r="CO62" t="n" s="10">
-        <v>95.4</v>
+        <v>95.7</v>
       </c>
       <c r="CP62" t="n" s="10">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="CQ62" t="n" s="10">
-        <v>97.0</v>
+        <v>97.2</v>
       </c>
       <c r="CR62" t="n" s="10">
-        <v>97.1</v>
+        <v>97.4</v>
       </c>
       <c r="CS62" t="n" s="10">
-        <v>95.4</v>
+        <v>95.8</v>
       </c>
       <c r="CT62" t="n" s="10">
-        <v>101.2</v>
+        <v>97.8</v>
       </c>
       <c r="CU62" t="n" s="10">
-        <v>89.4</v>
+        <v>89.7</v>
       </c>
       <c r="CV62" t="n" s="10">
-        <v>86.9</v>
+        <v>87.2</v>
       </c>
       <c r="CW62" t="n" s="10">
-        <v>86.8</v>
+        <v>87.0</v>
       </c>
       <c r="CX62" t="n" s="10">
-        <v>85.5</v>
+        <v>85.8</v>
       </c>
       <c r="CY62" t="n" s="10">
-        <v>87.5</v>
+        <v>87.8</v>
       </c>
       <c r="CZ62" t="n" s="10">
-        <v>83.8</v>
+        <v>84.2</v>
       </c>
       <c r="DA62" t="n" s="10">
-        <v>83.9</v>
+        <v>84.3</v>
       </c>
       <c r="DB62" t="n" s="10">
-        <v>83.7</v>
+        <v>84.0</v>
       </c>
       <c r="DC62" t="n" s="10">
-        <v>81.7</v>
+        <v>82.1</v>
       </c>
       <c r="DD62" t="n" s="10">
-        <v>80.3</v>
+        <v>80.6</v>
       </c>
       <c r="DE62" t="n" s="10">
-        <v>81.4</v>
+        <v>81.8</v>
       </c>
       <c r="DF62" t="n" s="10">
-        <v>86.1</v>
+        <v>82.3</v>
       </c>
       <c r="DG62" t="n" s="10">
-        <v>80.1</v>
+        <v>80.5</v>
       </c>
       <c r="DH62" t="n" s="10">
-        <v>80.9</v>
+        <v>81.2</v>
       </c>
       <c r="DI62" t="n" s="10">
-        <v>78.7</v>
+        <v>79.0</v>
       </c>
       <c r="DJ62" t="n" s="10">
-        <v>78.9</v>
+        <v>79.2</v>
       </c>
       <c r="DK62" t="n" s="10">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="DL62" t="n" s="10">
+        <v>76.8</v>
+      </c>
+      <c r="DM62" t="n" s="10">
+        <v>77.3</v>
+      </c>
+      <c r="DN62" t="n" s="10">
         <v>76.6</v>
       </c>
-      <c r="DM62" t="n" s="10">
-        <v>77.1</v>
-      </c>
-      <c r="DN62" t="n" s="10">
+      <c r="DO62" t="n" s="10">
+        <v>77.0</v>
+      </c>
+      <c r="DP62" t="n" s="10">
         <v>76.5</v>
-      </c>
-      <c r="DO62" t="n" s="10">
-        <v>76.9</v>
-      </c>
-      <c r="DP62" t="n" s="10">
-        <v>76.4</v>
       </c>
       <c r="DQ62" t="n" s="10">
         <v>76.4</v>
       </c>
       <c r="DR62" t="n" s="10">
-        <v>74.6</v>
+        <v>73.1</v>
       </c>
       <c r="DS62" t="n" s="10">
-        <v>78.0</v>
+        <v>78.1</v>
       </c>
       <c r="DT62" t="n" s="10">
-        <v>79.0</v>
+        <v>79.1</v>
       </c>
       <c r="DU62" t="n" s="10">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="DV62" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="DW62" t="n" s="10">
-        <v>80.9</v>
+        <v>81.0</v>
       </c>
       <c r="DX62" t="n" s="10">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="DY62" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="DZ62" t="n" s="10">
         <v>80.7</v>
@@ -24789,7 +24789,7 @@
         <v>97.0</v>
       </c>
       <c r="G63" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="H63" t="n" s="10">
         <v>97.2</v>
@@ -24801,7 +24801,7 @@
         <v>97.1</v>
       </c>
       <c r="K63" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="L63" t="n" s="10">
         <v>96.5</v>
@@ -24834,7 +24834,7 @@
         <v>93.9</v>
       </c>
       <c r="V63" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="W63" t="n" s="10">
         <v>94.1</v>
@@ -24849,7 +24849,7 @@
         <v>94.6</v>
       </c>
       <c r="AA63" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AB63" t="n" s="10">
         <v>94.7</v>
@@ -24870,19 +24870,19 @@
         <v>93.3</v>
       </c>
       <c r="AH63" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="AI63" t="n" s="10">
         <v>92.6</v>
       </c>
       <c r="AJ63" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="AK63" t="n" s="10">
         <v>92.2</v>
       </c>
       <c r="AL63" t="n" s="10">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="AM63" t="n" s="10">
         <v>91.7</v>
@@ -24909,7 +24909,7 @@
         <v>91.8</v>
       </c>
       <c r="AU63" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="AV63" t="n" s="10">
         <v>92.4</v>
@@ -24930,7 +24930,7 @@
         <v>94.2</v>
       </c>
       <c r="BB63" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="BC63" t="n" s="10">
         <v>94.7</v>
@@ -24993,13 +24993,13 @@
         <v>103.3</v>
       </c>
       <c r="BW63" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="BX63" t="n" s="10">
         <v>104.6</v>
       </c>
       <c r="BY63" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="BZ63" t="n" s="10">
         <v>105.4</v>
@@ -25023,13 +25023,13 @@
         <v>104.7</v>
       </c>
       <c r="CG63" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="CH63" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="CI63" t="n" s="10">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="CJ63" t="n" s="10">
         <v>102.5</v>
@@ -25041,85 +25041,85 @@
         <v>101.0</v>
       </c>
       <c r="CM63" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="CN63" t="n" s="10">
-        <v>99.0</v>
+        <v>99.2</v>
       </c>
       <c r="CO63" t="n" s="10">
-        <v>97.9</v>
+        <v>98.2</v>
       </c>
       <c r="CP63" t="n" s="10">
-        <v>96.8</v>
+        <v>97.1</v>
       </c>
       <c r="CQ63" t="n" s="10">
-        <v>95.7</v>
+        <v>96.0</v>
       </c>
       <c r="CR63" t="n" s="10">
-        <v>94.4</v>
+        <v>94.8</v>
       </c>
       <c r="CS63" t="n" s="10">
-        <v>93.3</v>
+        <v>93.6</v>
       </c>
       <c r="CT63" t="n" s="10">
-        <v>91.9</v>
+        <v>92.3</v>
       </c>
       <c r="CU63" t="n" s="10">
-        <v>90.6</v>
+        <v>90.9</v>
       </c>
       <c r="CV63" t="n" s="10">
-        <v>89.4</v>
+        <v>89.7</v>
       </c>
       <c r="CW63" t="n" s="10">
-        <v>88.1</v>
+        <v>88.4</v>
       </c>
       <c r="CX63" t="n" s="10">
-        <v>86.8</v>
+        <v>87.2</v>
       </c>
       <c r="CY63" t="n" s="10">
-        <v>85.7</v>
+        <v>86.1</v>
       </c>
       <c r="CZ63" t="n" s="10">
-        <v>84.5</v>
+        <v>85.0</v>
       </c>
       <c r="DA63" t="n" s="10">
-        <v>83.5</v>
+        <v>84.0</v>
       </c>
       <c r="DB63" t="n" s="10">
-        <v>82.6</v>
+        <v>83.1</v>
       </c>
       <c r="DC63" t="n" s="10">
+        <v>82.4</v>
+      </c>
+      <c r="DD63" t="n" s="10">
         <v>81.9</v>
       </c>
-      <c r="DD63" t="n" s="10">
-        <v>81.3</v>
-      </c>
       <c r="DE63" t="n" s="10">
-        <v>81.0</v>
+        <v>81.6</v>
       </c>
       <c r="DF63" t="n" s="10">
-        <v>80.5</v>
+        <v>81.2</v>
       </c>
       <c r="DG63" t="n" s="10">
+        <v>80.7</v>
+      </c>
+      <c r="DH63" t="n" s="10">
         <v>80.1</v>
       </c>
-      <c r="DH63" t="n" s="10">
-        <v>79.5</v>
-      </c>
       <c r="DI63" t="n" s="10">
-        <v>78.8</v>
+        <v>79.4</v>
       </c>
       <c r="DJ63" t="n" s="10">
-        <v>78.1</v>
+        <v>78.6</v>
       </c>
       <c r="DK63" t="n" s="10">
-        <v>77.5</v>
+        <v>77.9</v>
       </c>
       <c r="DL63" t="n" s="10">
-        <v>77.0</v>
+        <v>77.3</v>
       </c>
       <c r="DM63" t="n" s="10">
-        <v>76.7</v>
+        <v>76.9</v>
       </c>
       <c r="DN63" t="n" s="10">
         <v>76.6</v>
@@ -25128,16 +25128,16 @@
         <v>76.5</v>
       </c>
       <c r="DP63" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="DQ63" t="n" s="10">
-        <v>77.0</v>
+        <v>76.8</v>
       </c>
       <c r="DR63" t="n" s="10">
-        <v>77.2</v>
+        <v>77.1</v>
       </c>
       <c r="DS63" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="DT63" t="n" s="10">
         <v>78.1</v>
@@ -26401,10 +26401,10 @@
         <v>127.1</v>
       </c>
       <c r="G68" t="n" s="10">
-        <v>123.9</v>
+        <v>124.0</v>
       </c>
       <c r="H68" t="n" s="10">
-        <v>126.8</v>
+        <v>126.7</v>
       </c>
       <c r="I68" t="n" s="10">
         <v>125.7</v>
@@ -26437,7 +26437,7 @@
         <v>124.7</v>
       </c>
       <c r="S68" t="n" s="10">
-        <v>126.5</v>
+        <v>126.4</v>
       </c>
       <c r="T68" t="n" s="10">
         <v>124.4</v>
@@ -26503,7 +26503,7 @@
         <v>120.6</v>
       </c>
       <c r="AO68" t="n" s="10">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="AP68" t="n" s="10">
         <v>121.7</v>
@@ -26512,7 +26512,7 @@
         <v>120.5</v>
       </c>
       <c r="AR68" t="n" s="10">
-        <v>119.7</v>
+        <v>119.6</v>
       </c>
       <c r="AS68" t="n" s="10">
         <v>119.8</v>
@@ -26533,7 +26533,7 @@
         <v>119.1</v>
       </c>
       <c r="AY68" t="n" s="10">
-        <v>122.1</v>
+        <v>122.2</v>
       </c>
       <c r="AZ68" t="n" s="10">
         <v>122.0</v>
@@ -26542,7 +26542,7 @@
         <v>124.0</v>
       </c>
       <c r="BB68" t="n" s="10">
-        <v>118.7</v>
+        <v>118.8</v>
       </c>
       <c r="BC68" t="n" s="10">
         <v>120.0</v>
@@ -26620,10 +26620,10 @@
         <v>120.7</v>
       </c>
       <c r="CB68" t="n" s="10">
-        <v>117.7</v>
+        <v>117.8</v>
       </c>
       <c r="CC68" t="n" s="10">
-        <v>119.4</v>
+        <v>119.5</v>
       </c>
       <c r="CD68" t="n" s="10">
         <v>118.5</v>
@@ -26647,7 +26647,7 @@
         <v>115.6</v>
       </c>
       <c r="CK68" t="n" s="10">
-        <v>117.5</v>
+        <v>117.4</v>
       </c>
       <c r="CL68" t="n" s="10">
         <v>115.8</v>
@@ -26755,7 +26755,7 @@
         <v>107.3</v>
       </c>
       <c r="DU68" t="n" s="10">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="DV68" t="n" s="10">
         <v>106.9</v>
@@ -26782,7 +26782,7 @@
         <v>106.3</v>
       </c>
       <c r="ED68" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="69">
@@ -26793,7 +26793,7 @@
         <v>127.3</v>
       </c>
       <c r="D69" t="n" s="10">
-        <v>127.3</v>
+        <v>127.4</v>
       </c>
       <c r="E69" t="n" s="10">
         <v>127.4</v>
@@ -26841,7 +26841,7 @@
         <v>125.3</v>
       </c>
       <c r="T69" t="n" s="10">
-        <v>124.5</v>
+        <v>124.6</v>
       </c>
       <c r="U69" t="n" s="10">
         <v>123.8</v>
@@ -26871,7 +26871,7 @@
         <v>121.5</v>
       </c>
       <c r="AD69" t="n" s="10">
-        <v>121.4</v>
+        <v>121.5</v>
       </c>
       <c r="AE69" t="n" s="10">
         <v>121.4</v>
@@ -27015,7 +27015,7 @@
         <v>119.4</v>
       </c>
       <c r="BZ69" t="n" s="10">
-        <v>119.5</v>
+        <v>119.4</v>
       </c>
       <c r="CA69" t="n" s="10">
         <v>119.5</v>
@@ -28397,28 +28397,28 @@
         <v>35</v>
       </c>
       <c r="C73" t="n" s="10">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="D73" t="n" s="10">
         <v>108.7</v>
       </c>
       <c r="E73" t="n" s="10">
-        <v>110.5</v>
+        <v>110.7</v>
       </c>
       <c r="F73" t="n" s="10">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="G73" t="n" s="10">
         <v>107.3</v>
       </c>
       <c r="H73" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="I73" t="n" s="10">
         <v>109.1</v>
       </c>
       <c r="J73" t="n" s="10">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="K73" t="n" s="10">
         <v>111.0</v>
@@ -28430,7 +28430,7 @@
         <v>112.9</v>
       </c>
       <c r="N73" t="n" s="10">
-        <v>116.9</v>
+        <v>116.8</v>
       </c>
       <c r="O73" t="n" s="10">
         <v>109.6</v>
@@ -28442,7 +28442,7 @@
         <v>110.0</v>
       </c>
       <c r="R73" t="n" s="10">
-        <v>109.2</v>
+        <v>109.4</v>
       </c>
       <c r="S73" t="n" s="10">
         <v>110.7</v>
@@ -28454,121 +28454,121 @@
         <v>108.1</v>
       </c>
       <c r="V73" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="W73" t="n" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="X73" t="n" s="10">
+        <v>107.1</v>
+      </c>
+      <c r="Y73" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="Z73" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="AA73" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="W73" t="n" s="10">
-        <v>108.6</v>
-      </c>
-      <c r="X73" t="n" s="10">
-        <v>107.2</v>
-      </c>
-      <c r="Y73" t="n" s="10">
-        <v>106.2</v>
-      </c>
-      <c r="Z73" t="n" s="10">
-        <v>107.8</v>
-      </c>
-      <c r="AA73" t="n" s="10">
-        <v>107.8</v>
-      </c>
       <c r="AB73" t="n" s="10">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="AC73" t="n" s="10">
-        <v>105.5</v>
+        <v>107.1</v>
       </c>
       <c r="AD73" t="n" s="10">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="AE73" t="n" s="10">
-        <v>107.0</v>
+        <v>106.8</v>
       </c>
       <c r="AF73" t="n" s="10">
         <v>107.7</v>
       </c>
       <c r="AG73" t="n" s="10">
-        <v>108.3</v>
+        <v>108.1</v>
       </c>
       <c r="AH73" t="n" s="10">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="AI73" t="n" s="10">
+        <v>106.3</v>
+      </c>
+      <c r="AJ73" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="AK73" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="AL73" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="AM73" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="AN73" t="n" s="10">
         <v>106.4</v>
       </c>
-      <c r="AJ73" t="n" s="10">
-        <v>107.3</v>
-      </c>
-      <c r="AK73" t="n" s="10">
-        <v>108.5</v>
-      </c>
-      <c r="AL73" t="n" s="10">
-        <v>107.5</v>
-      </c>
-      <c r="AM73" t="n" s="10">
-        <v>106.1</v>
-      </c>
-      <c r="AN73" t="n" s="10">
+      <c r="AO73" t="n" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="AP73" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="AQ73" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="AR73" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="AS73" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="AT73" t="n" s="10">
+        <v>104.2</v>
+      </c>
+      <c r="AU73" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="AV73" t="n" s="10">
+        <v>106.2</v>
+      </c>
+      <c r="AW73" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="AX73" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="AY73" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="AZ73" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BA73" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="BB73" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="BC73" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BD73" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="AO73" t="n" s="10">
-        <v>100.4</v>
-      </c>
-      <c r="AP73" t="n" s="10">
-        <v>107.7</v>
-      </c>
-      <c r="AQ73" t="n" s="10">
+      <c r="BE73" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="AR73" t="n" s="10">
-        <v>105.9</v>
-      </c>
-      <c r="AS73" t="n" s="10">
-        <v>106.0</v>
-      </c>
-      <c r="AT73" t="n" s="10">
-        <v>104.4</v>
-      </c>
-      <c r="AU73" t="n" s="10">
-        <v>106.1</v>
-      </c>
-      <c r="AV73" t="n" s="10">
+      <c r="BF73" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BG73" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="BH73" t="n" s="10">
         <v>106.3</v>
-      </c>
-      <c r="AW73" t="n" s="10">
-        <v>105.5</v>
-      </c>
-      <c r="AX73" t="n" s="10">
-        <v>105.8</v>
-      </c>
-      <c r="AY73" t="n" s="10">
-        <v>108.5</v>
-      </c>
-      <c r="AZ73" t="n" s="10">
-        <v>108.5</v>
-      </c>
-      <c r="BA73" t="n" s="10">
-        <v>110.4</v>
-      </c>
-      <c r="BB73" t="n" s="10">
-        <v>105.9</v>
-      </c>
-      <c r="BC73" t="n" s="10">
-        <v>107.1</v>
-      </c>
-      <c r="BD73" t="n" s="10">
-        <v>106.9</v>
-      </c>
-      <c r="BE73" t="n" s="10">
-        <v>106.9</v>
-      </c>
-      <c r="BF73" t="n" s="10">
-        <v>107.9</v>
-      </c>
-      <c r="BG73" t="n" s="10">
-        <v>107.3</v>
-      </c>
-      <c r="BH73" t="n" s="10">
-        <v>106.4</v>
       </c>
       <c r="BI73" t="n" s="10">
         <v>106.8</v>
@@ -28577,7 +28577,7 @@
         <v>106.8</v>
       </c>
       <c r="BK73" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="BL73" t="n" s="10">
         <v>102.8</v>
@@ -28592,7 +28592,7 @@
         <v>104.2</v>
       </c>
       <c r="BP73" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="BQ73" t="n" s="10">
         <v>105.7</v>
@@ -28607,10 +28607,10 @@
         <v>106.2</v>
       </c>
       <c r="BU73" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="BV73" t="n" s="10">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="BW73" t="n" s="10">
         <v>105.4</v>
@@ -28622,19 +28622,19 @@
         <v>106.4</v>
       </c>
       <c r="BZ73" t="n" s="10">
-        <v>109.0</v>
+        <v>109.1</v>
       </c>
       <c r="CA73" t="n" s="10">
-        <v>108.1</v>
+        <v>108.0</v>
       </c>
       <c r="CB73" t="n" s="10">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="CC73" t="n" s="10">
         <v>107.3</v>
       </c>
       <c r="CD73" t="n" s="10">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="CE73" t="n" s="10">
         <v>107.4</v>
@@ -28688,19 +28688,19 @@
         <v>99.2</v>
       </c>
       <c r="CV73" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="CW73" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="CX73" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="CY73" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="CZ73" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DA73" t="n" s="10">
         <v>98.2</v>
@@ -28730,49 +28730,49 @@
         <v>96.9</v>
       </c>
       <c r="DJ73" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="DK73" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="DL73" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="DM73" t="n" s="10">
         <v>94.2</v>
       </c>
       <c r="DN73" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DO73" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="DP73" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="DQ73" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="DR73" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="DS73" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="DT73" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="DU73" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="DV73" t="n" s="10">
         <v>98.0</v>
-      </c>
-      <c r="DV73" t="n" s="10">
-        <v>97.9</v>
       </c>
       <c r="DW73" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="DX73" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="DY73" t="n" s="10">
         <v>98.4</v>
@@ -28781,16 +28781,16 @@
         <v>96.5</v>
       </c>
       <c r="EA73" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="EB73" t="n" s="10">
         <v>97.7</v>
       </c>
       <c r="EC73" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="ED73" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="74">
@@ -28876,82 +28876,82 @@
         <v>107.2</v>
       </c>
       <c r="AC74" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="AD74" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="AE74" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="AF74" t="n" s="10">
         <v>107.2</v>
       </c>
       <c r="AG74" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="AH74" t="n" s="10">
-        <v>107.4</v>
+        <v>107.2</v>
       </c>
       <c r="AI74" t="n" s="10">
-        <v>107.4</v>
+        <v>107.1</v>
       </c>
       <c r="AJ74" t="n" s="10">
-        <v>107.4</v>
+        <v>107.1</v>
       </c>
       <c r="AK74" t="n" s="10">
-        <v>107.5</v>
+        <v>107.0</v>
       </c>
       <c r="AL74" t="n" s="10">
-        <v>107.4</v>
+        <v>106.9</v>
       </c>
       <c r="AM74" t="n" s="10">
-        <v>107.3</v>
+        <v>106.6</v>
       </c>
       <c r="AN74" t="n" s="10">
-        <v>107.0</v>
+        <v>106.3</v>
       </c>
       <c r="AO74" t="n" s="10">
-        <v>106.8</v>
+        <v>106.0</v>
       </c>
       <c r="AP74" t="n" s="10">
-        <v>106.6</v>
+        <v>105.8</v>
       </c>
       <c r="AQ74" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="AR74" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="AS74" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="AT74" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="AU74" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="AV74" t="n" s="10">
         <v>106.3</v>
-      </c>
-      <c r="AR74" t="n" s="10">
-        <v>106.3</v>
-      </c>
-      <c r="AS74" t="n" s="10">
-        <v>106.2</v>
-      </c>
-      <c r="AT74" t="n" s="10">
-        <v>106.2</v>
-      </c>
-      <c r="AU74" t="n" s="10">
-        <v>106.3</v>
-      </c>
-      <c r="AV74" t="n" s="10">
-        <v>106.5</v>
       </c>
       <c r="AW74" t="n" s="10">
         <v>106.6</v>
       </c>
       <c r="AX74" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AY74" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="AZ74" t="n" s="10">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="BA74" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="BB74" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="BC74" t="n" s="10">
         <v>107.5</v>
@@ -28972,7 +28972,7 @@
         <v>106.3</v>
       </c>
       <c r="BI74" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="BJ74" t="n" s="10">
         <v>105.8</v>
@@ -29014,19 +29014,19 @@
         <v>106.3</v>
       </c>
       <c r="BW74" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="BX74" t="n" s="10">
-        <v>107.0</v>
+        <v>106.9</v>
       </c>
       <c r="BY74" t="n" s="10">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="BZ74" t="n" s="10">
         <v>107.2</v>
       </c>
       <c r="CA74" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="CB74" t="n" s="10">
         <v>107.2</v>
@@ -29035,7 +29035,7 @@
         <v>107.1</v>
       </c>
       <c r="CD74" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="CE74" t="n" s="10">
         <v>106.9</v>
@@ -29077,10 +29077,10 @@
         <v>102.7</v>
       </c>
       <c r="CR74" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="CS74" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="CT74" t="n" s="10">
         <v>100.8</v>
@@ -29119,7 +29119,7 @@
         <v>96.2</v>
       </c>
       <c r="DF74" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="DG74" t="n" s="10">
         <v>96.1</v>
@@ -29140,10 +29140,10 @@
         <v>95.4</v>
       </c>
       <c r="DM74" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="DN74" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DO74" t="n" s="10">
         <v>95.7</v>
@@ -29155,7 +29155,7 @@
         <v>96.2</v>
       </c>
       <c r="DR74" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DS74" t="n" s="10">
         <v>96.9</v>
@@ -30416,7 +30416,7 @@
         <v>95.6</v>
       </c>
       <c r="E79" t="n" s="10">
-        <v>96.8</v>
+        <v>96.6</v>
       </c>
       <c r="F79" t="n" s="10">
         <v>96.5</v>
@@ -30449,7 +30449,7 @@
         <v>97.3</v>
       </c>
       <c r="P79" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="Q79" t="n" s="10">
         <v>100.0</v>
@@ -30473,112 +30473,112 @@
         <v>97.5</v>
       </c>
       <c r="X79" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="Y79" t="n" s="10">
-        <v>99.0</v>
+        <v>99.2</v>
       </c>
       <c r="Z79" t="n" s="10">
-        <v>98.7</v>
+        <v>98.9</v>
       </c>
       <c r="AA79" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="AB79" t="n" s="10">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="AC79" t="n" s="10">
-        <v>96.8</v>
+        <v>95.1</v>
       </c>
       <c r="AD79" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="AE79" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="AF79" t="n" s="10">
+        <v>97.4</v>
+      </c>
+      <c r="AG79" t="n" s="10">
+        <v>98.2</v>
+      </c>
+      <c r="AH79" t="n" s="10">
+        <v>100.7</v>
+      </c>
+      <c r="AI79" t="n" s="10">
         <v>97.2</v>
       </c>
-      <c r="AG79" t="n" s="10">
-        <v>98.1</v>
-      </c>
-      <c r="AH79" t="n" s="10">
-        <v>100.5</v>
-      </c>
-      <c r="AI79" t="n" s="10">
-        <v>96.9</v>
-      </c>
       <c r="AJ79" t="n" s="10">
-        <v>94.7</v>
+        <v>95.0</v>
       </c>
       <c r="AK79" t="n" s="10">
-        <v>95.8</v>
+        <v>96.1</v>
       </c>
       <c r="AL79" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="AM79" t="n" s="10">
+        <v>97.6</v>
+      </c>
+      <c r="AN79" t="n" s="10">
+        <v>94.3</v>
+      </c>
+      <c r="AO79" t="n" s="10">
+        <v>89.1</v>
+      </c>
+      <c r="AP79" t="n" s="10">
+        <v>99.9</v>
+      </c>
+      <c r="AQ79" t="n" s="10">
+        <v>96.2</v>
+      </c>
+      <c r="AR79" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="AS79" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="AT79" t="n" s="10">
+        <v>91.3</v>
+      </c>
+      <c r="AU79" t="n" s="10">
+        <v>96.1</v>
+      </c>
+      <c r="AV79" t="n" s="10">
+        <v>97.0</v>
+      </c>
+      <c r="AW79" t="n" s="10">
+        <v>93.7</v>
+      </c>
+      <c r="AX79" t="n" s="10">
+        <v>94.0</v>
+      </c>
+      <c r="AY79" t="n" s="10">
+        <v>94.1</v>
+      </c>
+      <c r="AZ79" t="n" s="10">
+        <v>92.4</v>
+      </c>
+      <c r="BA79" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="BB79" t="n" s="10">
+        <v>94.3</v>
+      </c>
+      <c r="BC79" t="n" s="10">
+        <v>95.9</v>
+      </c>
+      <c r="BD79" t="n" s="10">
+        <v>96.6</v>
+      </c>
+      <c r="BE79" t="n" s="10">
+        <v>97.7</v>
+      </c>
+      <c r="BF79" t="n" s="10">
         <v>96.0</v>
       </c>
-      <c r="AM79" t="n" s="10">
-        <v>97.2</v>
-      </c>
-      <c r="AN79" t="n" s="10">
-        <v>93.9</v>
-      </c>
-      <c r="AO79" t="n" s="10">
-        <v>92.5</v>
-      </c>
-      <c r="AP79" t="n" s="10">
-        <v>99.5</v>
-      </c>
-      <c r="AQ79" t="n" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="AR79" t="n" s="10">
-        <v>95.2</v>
-      </c>
-      <c r="AS79" t="n" s="10">
-        <v>95.2</v>
-      </c>
-      <c r="AT79" t="n" s="10">
-        <v>91.0</v>
-      </c>
-      <c r="AU79" t="n" s="10">
-        <v>95.9</v>
-      </c>
-      <c r="AV79" t="n" s="10">
-        <v>96.8</v>
-      </c>
-      <c r="AW79" t="n" s="10">
-        <v>93.5</v>
-      </c>
-      <c r="AX79" t="n" s="10">
-        <v>93.9</v>
-      </c>
-      <c r="AY79" t="n" s="10">
-        <v>94.0</v>
-      </c>
-      <c r="AZ79" t="n" s="10">
-        <v>92.3</v>
-      </c>
-      <c r="BA79" t="n" s="10">
-        <v>99.0</v>
-      </c>
-      <c r="BB79" t="n" s="10">
-        <v>94.2</v>
-      </c>
-      <c r="BC79" t="n" s="10">
-        <v>95.7</v>
-      </c>
-      <c r="BD79" t="n" s="10">
-        <v>96.5</v>
-      </c>
-      <c r="BE79" t="n" s="10">
-        <v>97.6</v>
-      </c>
-      <c r="BF79" t="n" s="10">
-        <v>95.9</v>
-      </c>
       <c r="BG79" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="BH79" t="n" s="10">
         <v>92.4</v>
@@ -30587,40 +30587,40 @@
         <v>95.2</v>
       </c>
       <c r="BJ79" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="BK79" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="BL79" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="BM79" t="n" s="10">
-        <v>101.7</v>
+        <v>102.1</v>
       </c>
       <c r="BN79" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="BO79" t="n" s="10">
         <v>85.9</v>
       </c>
       <c r="BP79" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="BQ79" t="n" s="10">
         <v>82.9</v>
       </c>
       <c r="BR79" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="BS79" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="BT79" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="BU79" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="BV79" t="n" s="10">
         <v>82.4</v>
@@ -30632,7 +30632,7 @@
         <v>82.1</v>
       </c>
       <c r="BY79" t="n" s="10">
-        <v>79.5</v>
+        <v>79.7</v>
       </c>
       <c r="BZ79" t="n" s="10">
         <v>85.3</v>
@@ -30695,7 +30695,7 @@
         <v>86.3</v>
       </c>
       <c r="CT79" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="CU79" t="n" s="10">
         <v>82.0</v>
@@ -30722,7 +30722,7 @@
         <v>84.3</v>
       </c>
       <c r="DC79" t="n" s="10">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="DD79" t="n" s="10">
         <v>85.6</v>
@@ -30886,13 +30886,13 @@
         <v>97.9</v>
       </c>
       <c r="AB80" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC80" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="AD80" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="AE80" t="n" s="10">
         <v>97.4</v>
@@ -30901,70 +30901,70 @@
         <v>97.3</v>
       </c>
       <c r="AG80" t="n" s="10">
+        <v>97.3</v>
+      </c>
+      <c r="AH80" t="n" s="10">
         <v>97.2</v>
       </c>
-      <c r="AH80" t="n" s="10">
+      <c r="AI80" t="n" s="10">
         <v>97.0</v>
       </c>
-      <c r="AI80" t="n" s="10">
+      <c r="AJ80" t="n" s="10">
+        <v>96.9</v>
+      </c>
+      <c r="AK80" t="n" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="AL80" t="n" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="AM80" t="n" s="10">
         <v>96.7</v>
       </c>
-      <c r="AJ80" t="n" s="10">
+      <c r="AN80" t="n" s="10">
         <v>96.5</v>
       </c>
-      <c r="AK80" t="n" s="10">
-        <v>96.3</v>
-      </c>
-      <c r="AL80" t="n" s="10">
-        <v>96.1</v>
-      </c>
-      <c r="AM80" t="n" s="10">
+      <c r="AO80" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="AP80" t="n" s="10">
+        <v>96.2</v>
+      </c>
+      <c r="AQ80" t="n" s="10">
         <v>95.9</v>
       </c>
-      <c r="AN80" t="n" s="10">
+      <c r="AR80" t="n" s="10">
         <v>95.6</v>
       </c>
-      <c r="AO80" t="n" s="10">
-        <v>95.5</v>
-      </c>
-      <c r="AP80" t="n" s="10">
-        <v>95.4</v>
-      </c>
-      <c r="AQ80" t="n" s="10">
+      <c r="AS80" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="AT80" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="AU80" t="n" s="10">
         <v>95.1</v>
       </c>
-      <c r="AR80" t="n" s="10">
+      <c r="AV80" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="AW80" t="n" s="10">
         <v>94.9</v>
       </c>
-      <c r="AS80" t="n" s="10">
+      <c r="AX80" t="n" s="10">
         <v>94.8</v>
       </c>
-      <c r="AT80" t="n" s="10">
+      <c r="AY80" t="n" s="10">
         <v>94.7</v>
       </c>
-      <c r="AU80" t="n" s="10">
+      <c r="AZ80" t="n" s="10">
         <v>94.8</v>
       </c>
-      <c r="AV80" t="n" s="10">
-        <v>94.9</v>
-      </c>
-      <c r="AW80" t="n" s="10">
-        <v>94.8</v>
-      </c>
-      <c r="AX80" t="n" s="10">
-        <v>94.9</v>
-      </c>
-      <c r="AY80" t="n" s="10">
-        <v>94.8</v>
-      </c>
-      <c r="AZ80" t="n" s="10">
-        <v>94.9</v>
-      </c>
       <c r="BA80" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="BB80" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="BC80" t="n" s="10">
         <v>95.6</v>
@@ -30976,7 +30976,7 @@
         <v>96.0</v>
       </c>
       <c r="BF80" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="BG80" t="n" s="10">
         <v>95.5</v>
@@ -30988,31 +30988,31 @@
         <v>94.3</v>
       </c>
       <c r="BJ80" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="BK80" t="n" s="10">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="BL80" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="BM80" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="BN80" t="n" s="10">
-        <v>89.4</v>
+        <v>89.2</v>
       </c>
       <c r="BO80" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="BP80" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="BQ80" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="BR80" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="BS80" t="n" s="10">
         <v>84.7</v>
@@ -31075,7 +31075,7 @@
         <v>85.2</v>
       </c>
       <c r="CM80" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="CN80" t="n" s="10">
         <v>85.1</v>
@@ -32424,7 +32424,7 @@
         <v>70.3</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>72.3</v>
+        <v>72.2</v>
       </c>
       <c r="F84" t="n" s="10">
         <v>71.3</v>
@@ -32433,7 +32433,7 @@
         <v>70.3</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>70.5</v>
+        <v>70.4</v>
       </c>
       <c r="I84" t="n" s="10">
         <v>71.4</v>
@@ -32442,7 +32442,7 @@
         <v>73.0</v>
       </c>
       <c r="K84" t="n" s="10">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="L84" t="n" s="10">
         <v>73.6</v>
@@ -32451,7 +32451,7 @@
         <v>72.2</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>70.8</v>
+        <v>70.7</v>
       </c>
       <c r="O84" t="n" s="10">
         <v>71.1</v>
@@ -32460,10 +32460,10 @@
         <v>71.8</v>
       </c>
       <c r="Q84" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="R84" t="n" s="10">
-        <v>71.9</v>
+        <v>72.0</v>
       </c>
       <c r="S84" t="n" s="10">
         <v>73.2</v>
@@ -32472,7 +32472,7 @@
         <v>72.3</v>
       </c>
       <c r="U84" t="n" s="10">
-        <v>70.8</v>
+        <v>70.9</v>
       </c>
       <c r="V84" t="n" s="10">
         <v>70.8</v>
@@ -32484,7 +32484,7 @@
         <v>70.7</v>
       </c>
       <c r="Y84" t="n" s="10">
-        <v>72.0</v>
+        <v>71.9</v>
       </c>
       <c r="Z84" t="n" s="10">
         <v>72.7</v>
@@ -32505,7 +32505,7 @@
         <v>73.2</v>
       </c>
       <c r="AF84" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="AG84" t="n" s="10">
         <v>75.6</v>
@@ -32514,7 +32514,7 @@
         <v>76.8</v>
       </c>
       <c r="AI84" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="AJ84" t="n" s="10">
         <v>75.1</v>
@@ -32532,22 +32532,22 @@
         <v>74.1</v>
       </c>
       <c r="AO84" t="n" s="10">
-        <v>72.0</v>
+        <v>72.1</v>
       </c>
       <c r="AP84" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="AQ84" t="n" s="10">
         <v>74.1</v>
       </c>
       <c r="AR84" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="AS84" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="AT84" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="AU84" t="n" s="10">
         <v>73.0</v>
@@ -32559,7 +32559,7 @@
         <v>73.1</v>
       </c>
       <c r="AX84" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="AY84" t="n" s="10">
         <v>70.9</v>
@@ -32577,13 +32577,13 @@
         <v>71.9</v>
       </c>
       <c r="BD84" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="BE84" t="n" s="10">
         <v>71.6</v>
       </c>
       <c r="BF84" t="n" s="10">
-        <v>69.8</v>
+        <v>69.9</v>
       </c>
       <c r="BG84" t="n" s="10">
         <v>69.5</v>
@@ -32607,10 +32607,10 @@
         <v>71.4</v>
       </c>
       <c r="BN84" t="n" s="10">
-        <v>67.8</v>
+        <v>67.7</v>
       </c>
       <c r="BO84" t="n" s="10">
-        <v>67.0</v>
+        <v>67.1</v>
       </c>
       <c r="BP84" t="n" s="10">
         <v>69.3</v>
@@ -32631,19 +32631,19 @@
         <v>71.2</v>
       </c>
       <c r="BV84" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="BW84" t="n" s="10">
         <v>70.1</v>
       </c>
       <c r="BX84" t="n" s="10">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="BY84" t="n" s="10">
         <v>69.2</v>
       </c>
       <c r="BZ84" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="CA84" t="n" s="10">
         <v>75.3</v>
@@ -32694,7 +32694,7 @@
         <v>74.7</v>
       </c>
       <c r="CQ84" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="CR84" t="n" s="10">
         <v>72.7</v>
@@ -32703,7 +32703,7 @@
         <v>74.7</v>
       </c>
       <c r="CT84" t="n" s="10">
-        <v>72.9</v>
+        <v>73.0</v>
       </c>
       <c r="CU84" t="n" s="10">
         <v>71.6</v>
@@ -32712,13 +32712,13 @@
         <v>73.9</v>
       </c>
       <c r="CW84" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="CX84" t="n" s="10">
         <v>73.3</v>
       </c>
       <c r="CY84" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="CZ84" t="n" s="10">
         <v>72.9</v>
@@ -32736,7 +32736,7 @@
         <v>76.3</v>
       </c>
       <c r="DE84" t="n" s="10">
-        <v>73.0</v>
+        <v>73.1</v>
       </c>
       <c r="DF84" t="n" s="10">
         <v>73.6</v>
@@ -32757,7 +32757,7 @@
         <v>71.5</v>
       </c>
       <c r="DL84" t="n" s="10">
-        <v>70.6</v>
+        <v>70.7</v>
       </c>
       <c r="DM84" t="n" s="10">
         <v>69.4</v>
@@ -32766,13 +32766,13 @@
         <v>69.0</v>
       </c>
       <c r="DO84" t="n" s="10">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="DP84" t="n" s="10">
         <v>69.3</v>
       </c>
       <c r="DQ84" t="n" s="10">
-        <v>69.0</v>
+        <v>69.1</v>
       </c>
       <c r="DR84" t="n" s="10">
         <v>70.4</v>
@@ -32784,7 +32784,7 @@
         <v>69.1</v>
       </c>
       <c r="DU84" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="DV84" t="n" s="10">
         <v>69.0</v>
@@ -32793,10 +32793,10 @@
         <v>68.5</v>
       </c>
       <c r="DX84" t="n" s="10">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="DY84" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="DZ84" t="n" s="10">
         <v>68.6</v>
@@ -32811,7 +32811,7 @@
         <v>70.3</v>
       </c>
       <c r="ED84" t="n" s="10">
-        <v>68.9</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="85">
@@ -32840,7 +32840,7 @@
         <v>71.7</v>
       </c>
       <c r="J85" t="n" s="10">
-        <v>71.9</v>
+        <v>71.8</v>
       </c>
       <c r="K85" t="n" s="10">
         <v>71.9</v>
@@ -32861,7 +32861,7 @@
         <v>71.8</v>
       </c>
       <c r="Q85" t="n" s="10">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="R85" t="n" s="10">
         <v>71.7</v>
@@ -32924,7 +32924,7 @@
         <v>75.3</v>
       </c>
       <c r="AL85" t="n" s="10">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="AM85" t="n" s="10">
         <v>75.0</v>
@@ -32936,7 +32936,7 @@
         <v>74.5</v>
       </c>
       <c r="AP85" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="AQ85" t="n" s="10">
         <v>73.9</v>
@@ -32948,7 +32948,7 @@
         <v>73.3</v>
       </c>
       <c r="AT85" t="n" s="10">
-        <v>73.0</v>
+        <v>73.1</v>
       </c>
       <c r="AU85" t="n" s="10">
         <v>72.9</v>
@@ -32969,7 +32969,7 @@
         <v>71.9</v>
       </c>
       <c r="BA85" t="n" s="10">
-        <v>71.6</v>
+        <v>71.7</v>
       </c>
       <c r="BB85" t="n" s="10">
         <v>71.3</v>
@@ -33032,16 +33032,16 @@
         <v>70.1</v>
       </c>
       <c r="BV85" t="n" s="10">
-        <v>70.5</v>
+        <v>70.4</v>
       </c>
       <c r="BW85" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="BX85" t="n" s="10">
         <v>71.7</v>
       </c>
       <c r="BY85" t="n" s="10">
-        <v>72.5</v>
+        <v>72.4</v>
       </c>
       <c r="BZ85" t="n" s="10">
         <v>73.3</v>
@@ -33050,7 +33050,7 @@
         <v>74.0</v>
       </c>
       <c r="CB85" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="CC85" t="n" s="10">
         <v>75.1</v>
@@ -33086,7 +33086,7 @@
         <v>75.9</v>
       </c>
       <c r="CN85" t="n" s="10">
-        <v>75.4</v>
+        <v>75.5</v>
       </c>
       <c r="CO85" t="n" s="10">
         <v>75.0</v>
@@ -33107,22 +33107,22 @@
         <v>73.5</v>
       </c>
       <c r="CU85" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="CV85" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="CW85" t="n" s="10">
         <v>73.4</v>
       </c>
       <c r="CX85" t="n" s="10">
-        <v>73.4</v>
+        <v>73.5</v>
       </c>
       <c r="CY85" t="n" s="10">
         <v>73.6</v>
       </c>
       <c r="CZ85" t="n" s="10">
-        <v>73.6</v>
+        <v>73.7</v>
       </c>
       <c r="DA85" t="n" s="10">
         <v>73.8</v>
@@ -33149,7 +33149,7 @@
         <v>72.5</v>
       </c>
       <c r="DI85" t="n" s="10">
-        <v>72.0</v>
+        <v>72.1</v>
       </c>
       <c r="DJ85" t="n" s="10">
         <v>71.6</v>
@@ -34434,7 +34434,7 @@
         <v>89.7</v>
       </c>
       <c r="D90" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="E90" t="n" s="10">
         <v>92.3</v>
@@ -34464,7 +34464,7 @@
         <v>91.1</v>
       </c>
       <c r="N90" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="O90" t="n" s="10">
         <v>90.6</v>
@@ -34479,7 +34479,7 @@
         <v>92.1</v>
       </c>
       <c r="S90" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="T90" t="n" s="10">
         <v>92.6</v>
@@ -34506,7 +34506,7 @@
         <v>92.2</v>
       </c>
       <c r="AB90" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="AC90" t="n" s="10">
         <v>93.1</v>
@@ -34545,7 +34545,7 @@
         <v>92.3</v>
       </c>
       <c r="AO90" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="AP90" t="n" s="10">
         <v>92.3</v>
@@ -34764,7 +34764,7 @@
         <v>91.6</v>
       </c>
       <c r="DJ90" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="DK90" t="n" s="10">
         <v>93.3</v>
@@ -34865,7 +34865,7 @@
         <v>90.9</v>
       </c>
       <c r="N91" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="O91" t="n" s="10">
         <v>91.2</v>
@@ -35111,10 +35111,10 @@
         <v>94.2</v>
       </c>
       <c r="CR91" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="CS91" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="CT91" t="n" s="10">
         <v>93.8</v>
@@ -35159,7 +35159,7 @@
         <v>92.8</v>
       </c>
       <c r="DH91" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="DI91" t="n" s="10">
         <v>92.7</v>
@@ -36469,7 +36469,7 @@
         <v>80.2</v>
       </c>
       <c r="M95" t="n" s="10">
-        <v>79.2</v>
+        <v>79.1</v>
       </c>
       <c r="N95" t="n" s="10">
         <v>79.6</v>
@@ -36511,7 +36511,7 @@
         <v>80.8</v>
       </c>
       <c r="AA95" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="AB95" t="n" s="10">
         <v>80.6</v>
@@ -36526,7 +36526,7 @@
         <v>80.9</v>
       </c>
       <c r="AF95" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="AG95" t="n" s="10">
         <v>80.6</v>
@@ -36553,7 +36553,7 @@
         <v>81.4</v>
       </c>
       <c r="AO95" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="AP95" t="n" s="10">
         <v>81.0</v>
@@ -36562,7 +36562,7 @@
         <v>81.6</v>
       </c>
       <c r="AR95" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="AS95" t="n" s="10">
         <v>82.0</v>
@@ -36577,7 +36577,7 @@
         <v>82.3</v>
       </c>
       <c r="AW95" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="AX95" t="n" s="10">
         <v>81.8</v>
@@ -36628,7 +36628,7 @@
         <v>83.5</v>
       </c>
       <c r="BN95" t="n" s="10">
-        <v>83.3</v>
+        <v>83.4</v>
       </c>
       <c r="BO95" t="n" s="10">
         <v>82.2</v>
@@ -36652,25 +36652,25 @@
         <v>83.3</v>
       </c>
       <c r="BV95" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="BW95" t="n" s="10">
         <v>82.2</v>
       </c>
       <c r="BX95" t="n" s="10">
-        <v>84.9</v>
+        <v>85.0</v>
       </c>
       <c r="BY95" t="n" s="10">
         <v>82.9</v>
       </c>
       <c r="BZ95" t="n" s="10">
+        <v>83.9</v>
+      </c>
+      <c r="CA95" t="n" s="10">
         <v>84.0</v>
       </c>
-      <c r="CA95" t="n" s="10">
-        <v>83.9</v>
-      </c>
       <c r="CB95" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="CC95" t="n" s="10">
         <v>83.7</v>
@@ -36688,7 +36688,7 @@
         <v>83.4</v>
       </c>
       <c r="CH95" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="CI95" t="n" s="10">
         <v>85.7</v>
@@ -36733,7 +36733,7 @@
         <v>85.4</v>
       </c>
       <c r="CW95" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="CX95" t="n" s="10">
         <v>84.7</v>
@@ -36769,7 +36769,7 @@
         <v>85.0</v>
       </c>
       <c r="DI95" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="DJ95" t="n" s="10">
         <v>85.4</v>
@@ -36778,13 +36778,13 @@
         <v>85.4</v>
       </c>
       <c r="DL95" t="n" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="DM95" t="n" s="10">
         <v>85.0</v>
       </c>
-      <c r="DM95" t="n" s="10">
-        <v>84.9</v>
-      </c>
       <c r="DN95" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="DO95" t="n" s="10">
         <v>85.4</v>
@@ -36814,7 +36814,7 @@
         <v>84.6</v>
       </c>
       <c r="DX95" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="DY95" t="n" s="10">
         <v>86.1</v>
@@ -36829,7 +36829,7 @@
         <v>85.8</v>
       </c>
       <c r="EC95" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="ED95" t="n" s="10">
         <v>85.8</v>
@@ -36945,7 +36945,7 @@
         <v>81.3</v>
       </c>
       <c r="AL96" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="AM96" t="n" s="10">
         <v>81.3</v>
@@ -36978,7 +36978,7 @@
         <v>81.9</v>
       </c>
       <c r="AW96" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="AX96" t="n" s="10">
         <v>82.0</v>
@@ -36990,7 +36990,7 @@
         <v>82.3</v>
       </c>
       <c r="BA96" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="BB96" t="n" s="10">
         <v>82.4</v>
@@ -37047,7 +37047,7 @@
         <v>83.0</v>
       </c>
       <c r="BT96" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="BU96" t="n" s="10">
         <v>83.1</v>
@@ -37062,7 +37062,7 @@
         <v>83.4</v>
       </c>
       <c r="BY96" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="BZ96" t="n" s="10">
         <v>83.5</v>
@@ -37098,7 +37098,7 @@
         <v>85.0</v>
       </c>
       <c r="CK96" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="CL96" t="n" s="10">
         <v>85.5</v>
@@ -37134,7 +37134,7 @@
         <v>85.8</v>
       </c>
       <c r="CW96" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="CX96" t="n" s="10">
         <v>85.7</v>
@@ -37158,7 +37158,7 @@
         <v>85.1</v>
       </c>
       <c r="DE96" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="DF96" t="n" s="10">
         <v>85.0</v>
@@ -37170,7 +37170,7 @@
         <v>85.0</v>
       </c>
       <c r="DI96" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="DJ96" t="n" s="10">
         <v>85.0</v>
@@ -37233,7 +37233,7 @@
         <v>86.0</v>
       </c>
       <c r="ED96" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="97" ht="33.75" customHeight="true">
@@ -38467,7 +38467,7 @@
         <v>92.0</v>
       </c>
       <c r="H101" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="I101" t="n" s="10">
         <v>93.9</v>
@@ -38566,16 +38566,16 @@
         <v>93.0</v>
       </c>
       <c r="AO101" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="AP101" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="AQ101" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="AR101" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="AS101" t="n" s="10">
         <v>92.9</v>
@@ -38674,7 +38674,7 @@
         <v>97.8</v>
       </c>
       <c r="BY101" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="BZ101" t="n" s="10">
         <v>97.7</v>
@@ -39198,7 +39198,7 @@
         <v>101.2</v>
       </c>
       <c r="DN102" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="DO102" t="n" s="10">
         <v>101.7</v>
@@ -40460,34 +40460,34 @@
         <v>35</v>
       </c>
       <c r="C106" t="n" s="10">
-        <v>71.4</v>
+        <v>71.9</v>
       </c>
       <c r="D106" t="n" s="10">
-        <v>71.4</v>
+        <v>71.7</v>
       </c>
       <c r="E106" t="n" s="10">
-        <v>76.5</v>
+        <v>74.5</v>
       </c>
       <c r="F106" t="n" s="10">
-        <v>69.1</v>
+        <v>69.4</v>
       </c>
       <c r="G106" t="n" s="10">
-        <v>69.8</v>
+        <v>70.1</v>
       </c>
       <c r="H106" t="n" s="10">
-        <v>69.9</v>
+        <v>70.1</v>
       </c>
       <c r="I106" t="n" s="10">
-        <v>71.5</v>
+        <v>71.7</v>
       </c>
       <c r="J106" t="n" s="10">
-        <v>70.0</v>
+        <v>70.1</v>
       </c>
       <c r="K106" t="n" s="10">
         <v>71.4</v>
       </c>
       <c r="L106" t="n" s="10">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="M106" t="n" s="10">
         <v>71.9</v>
@@ -40496,31 +40496,31 @@
         <v>73.0</v>
       </c>
       <c r="O106" t="n" s="10">
-        <v>72.2</v>
+        <v>72.4</v>
       </c>
       <c r="P106" t="n" s="10">
-        <v>72.3</v>
+        <v>72.4</v>
       </c>
       <c r="Q106" t="n" s="10">
-        <v>74.4</v>
+        <v>73.4</v>
       </c>
       <c r="R106" t="n" s="10">
-        <v>74.4</v>
+        <v>74.6</v>
       </c>
       <c r="S106" t="n" s="10">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="T106" t="n" s="10">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="U106" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="V106" t="n" s="10">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="W106" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="X106" t="n" s="10">
         <v>73.2</v>
@@ -40547,7 +40547,7 @@
         <v>73.8</v>
       </c>
       <c r="AF106" t="n" s="10">
-        <v>73.4</v>
+        <v>73.5</v>
       </c>
       <c r="AG106" t="n" s="10">
         <v>74.0</v>
@@ -40574,13 +40574,13 @@
         <v>72.2</v>
       </c>
       <c r="AO106" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="AP106" t="n" s="10">
-        <v>71.9</v>
+        <v>71.8</v>
       </c>
       <c r="AQ106" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="AR106" t="n" s="10">
         <v>72.8</v>
@@ -40613,13 +40613,13 @@
         <v>71.3</v>
       </c>
       <c r="BB106" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="BC106" t="n" s="10">
         <v>74.1</v>
       </c>
       <c r="BD106" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="BE106" t="n" s="10">
         <v>74.1</v>
@@ -40655,7 +40655,7 @@
         <v>72.4</v>
       </c>
       <c r="BP106" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="BQ106" t="n" s="10">
         <v>75.5</v>
@@ -40664,7 +40664,7 @@
         <v>73.5</v>
       </c>
       <c r="BS106" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="BT106" t="n" s="10">
         <v>74.6</v>
@@ -40673,7 +40673,7 @@
         <v>74.8</v>
       </c>
       <c r="BV106" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="BW106" t="n" s="10">
         <v>74.4</v>
@@ -40688,16 +40688,16 @@
         <v>75.9</v>
       </c>
       <c r="CA106" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="CB106" t="n" s="10">
-        <v>75.6</v>
+        <v>75.7</v>
       </c>
       <c r="CC106" t="n" s="10">
         <v>74.5</v>
       </c>
       <c r="CD106" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="CE106" t="n" s="10">
         <v>77.1</v>
@@ -40721,7 +40721,7 @@
         <v>77.8</v>
       </c>
       <c r="CL106" t="n" s="10">
-        <v>78.9</v>
+        <v>79.0</v>
       </c>
       <c r="CM106" t="n" s="10">
         <v>79.2</v>
@@ -40730,13 +40730,13 @@
         <v>80.5</v>
       </c>
       <c r="CO106" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="CP106" t="n" s="10">
         <v>80.1</v>
       </c>
       <c r="CQ106" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="CR106" t="n" s="10">
         <v>80.3</v>
@@ -40760,7 +40760,7 @@
         <v>80.2</v>
       </c>
       <c r="CY106" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="CZ106" t="n" s="10">
         <v>80.7</v>
@@ -40784,7 +40784,7 @@
         <v>81.5</v>
       </c>
       <c r="DG106" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="DH106" t="n" s="10">
         <v>81.6</v>
@@ -40805,7 +40805,7 @@
         <v>82.5</v>
       </c>
       <c r="DN106" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="DO106" t="n" s="10">
         <v>83.7</v>
@@ -40817,7 +40817,7 @@
         <v>83.1</v>
       </c>
       <c r="DR106" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="DS106" t="n" s="10">
         <v>85.5</v>
@@ -40826,13 +40826,13 @@
         <v>84.5</v>
       </c>
       <c r="DU106" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="DV106" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="DW106" t="n" s="10">
-        <v>82.8</v>
+        <v>82.9</v>
       </c>
       <c r="DX106" t="n" s="10">
         <v>85.1</v>
@@ -40861,31 +40861,31 @@
         <v>36</v>
       </c>
       <c r="C107" t="n" s="10">
-        <v>70.6</v>
+        <v>71.6</v>
       </c>
       <c r="D107" t="n" s="10">
-        <v>70.5</v>
+        <v>71.4</v>
       </c>
       <c r="E107" t="n" s="10">
-        <v>70.5</v>
+        <v>71.3</v>
       </c>
       <c r="F107" t="n" s="10">
-        <v>70.4</v>
+        <v>71.1</v>
       </c>
       <c r="G107" t="n" s="10">
-        <v>70.3</v>
+        <v>70.9</v>
       </c>
       <c r="H107" t="n" s="10">
-        <v>70.3</v>
+        <v>70.8</v>
       </c>
       <c r="I107" t="n" s="10">
-        <v>70.5</v>
+        <v>70.8</v>
       </c>
       <c r="J107" t="n" s="10">
-        <v>70.8</v>
+        <v>71.0</v>
       </c>
       <c r="K107" t="n" s="10">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="L107" t="n" s="10">
         <v>71.6</v>
@@ -40894,19 +40894,19 @@
         <v>72.0</v>
       </c>
       <c r="N107" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="O107" t="n" s="10">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="P107" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="Q107" t="n" s="10">
         <v>73.6</v>
       </c>
       <c r="R107" t="n" s="10">
-        <v>74.0</v>
+        <v>73.9</v>
       </c>
       <c r="S107" t="n" s="10">
         <v>74.2</v>
@@ -40921,7 +40921,7 @@
         <v>74.7</v>
       </c>
       <c r="W107" t="n" s="10">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="X107" t="n" s="10">
         <v>74.6</v>
@@ -40969,7 +40969,7 @@
         <v>73.5</v>
       </c>
       <c r="AM107" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="AN107" t="n" s="10">
         <v>73.3</v>
@@ -41044,7 +41044,7 @@
         <v>74.4</v>
       </c>
       <c r="BL107" t="n" s="10">
-        <v>74.4</v>
+        <v>74.3</v>
       </c>
       <c r="BM107" t="n" s="10">
         <v>74.3</v>
@@ -41071,7 +41071,7 @@
         <v>74.6</v>
       </c>
       <c r="BU107" t="n" s="10">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="BV107" t="n" s="10">
         <v>74.9</v>
@@ -41092,7 +41092,7 @@
         <v>75.7</v>
       </c>
       <c r="CB107" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="CC107" t="n" s="10">
         <v>75.8</v>
@@ -41143,7 +41143,7 @@
         <v>80.3</v>
       </c>
       <c r="CS107" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="CT107" t="n" s="10">
         <v>80.6</v>
@@ -41161,7 +41161,7 @@
         <v>81.1</v>
       </c>
       <c r="CY107" t="n" s="10">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="CZ107" t="n" s="10">
         <v>81.3</v>
@@ -41215,7 +41215,7 @@
         <v>83.7</v>
       </c>
       <c r="DQ107" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="DR107" t="n" s="10">
         <v>84.2</v>
@@ -42473,10 +42473,10 @@
         <v>35</v>
       </c>
       <c r="C112" t="n" s="10">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="D112" t="n" s="10">
-        <v>107.0</v>
+        <v>106.9</v>
       </c>
       <c r="E112" t="n" s="10">
         <v>114.2</v>
@@ -42485,7 +42485,7 @@
         <v>106.2</v>
       </c>
       <c r="G112" t="n" s="10">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="H112" t="n" s="10">
         <v>107.2</v>
@@ -42503,7 +42503,7 @@
         <v>112.2</v>
       </c>
       <c r="M112" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="N112" t="n" s="10">
         <v>109.4</v>
@@ -42527,7 +42527,7 @@
         <v>107.9</v>
       </c>
       <c r="U112" t="n" s="10">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="V112" t="n" s="10">
         <v>107.7</v>
@@ -42539,7 +42539,7 @@
         <v>103.7</v>
       </c>
       <c r="Y112" t="n" s="10">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="Z112" t="n" s="10">
         <v>106.8</v>
@@ -42560,10 +42560,10 @@
         <v>101.4</v>
       </c>
       <c r="AF112" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="AG112" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="AH112" t="n" s="10">
         <v>108.9</v>
@@ -42578,7 +42578,7 @@
         <v>107.7</v>
       </c>
       <c r="AL112" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AM112" t="n" s="10">
         <v>105.2</v>
@@ -42587,16 +42587,16 @@
         <v>105.4</v>
       </c>
       <c r="AO112" t="n" s="10">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="AP112" t="n" s="10">
         <v>102.2</v>
       </c>
       <c r="AQ112" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="AR112" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="AS112" t="n" s="10">
         <v>104.0</v>
@@ -42611,7 +42611,7 @@
         <v>106.4</v>
       </c>
       <c r="AW112" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AX112" t="n" s="10">
         <v>104.4</v>
@@ -42632,7 +42632,7 @@
         <v>103.5</v>
       </c>
       <c r="BD112" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="BE112" t="n" s="10">
         <v>101.5</v>
@@ -42644,16 +42644,16 @@
         <v>106.1</v>
       </c>
       <c r="BH112" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BI112" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="BJ112" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="BK112" t="n" s="10">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="BL112" t="n" s="10">
         <v>97.5</v>
@@ -42662,10 +42662,10 @@
         <v>108.1</v>
       </c>
       <c r="BN112" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="BO112" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="BP112" t="n" s="10">
         <v>104.9</v>
@@ -42686,7 +42686,7 @@
         <v>102.2</v>
       </c>
       <c r="BV112" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="BW112" t="n" s="10">
         <v>97.9</v>
@@ -42695,7 +42695,7 @@
         <v>106.6</v>
       </c>
       <c r="BY112" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="BZ112" t="n" s="10">
         <v>105.5</v>
@@ -42707,10 +42707,10 @@
         <v>99.8</v>
       </c>
       <c r="CC112" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="CD112" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="CE112" t="n" s="10">
         <v>102.9</v>
@@ -42722,7 +42722,7 @@
         <v>100.1</v>
       </c>
       <c r="CH112" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="CI112" t="n" s="10">
         <v>103.6</v>
@@ -42731,7 +42731,7 @@
         <v>100.2</v>
       </c>
       <c r="CK112" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="CL112" t="n" s="10">
         <v>100.3</v>
@@ -42749,7 +42749,7 @@
         <v>98.4</v>
       </c>
       <c r="CQ112" t="n" s="10">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="CR112" t="n" s="10">
         <v>95.1</v>
@@ -42767,19 +42767,19 @@
         <v>96.3</v>
       </c>
       <c r="CW112" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="CX112" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="CY112" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="CZ112" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="DA112" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="DB112" t="n" s="10">
         <v>95.8</v>
@@ -42803,7 +42803,7 @@
         <v>90.9</v>
       </c>
       <c r="DI112" t="n" s="10">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="DJ112" t="n" s="10">
         <v>90.5</v>
@@ -42815,7 +42815,7 @@
         <v>90.1</v>
       </c>
       <c r="DM112" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="DN112" t="n" s="10">
         <v>87.7</v>
@@ -42830,7 +42830,7 @@
         <v>87.3</v>
       </c>
       <c r="DR112" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="DS112" t="n" s="10">
         <v>92.4</v>
@@ -42839,7 +42839,7 @@
         <v>93.5</v>
       </c>
       <c r="DU112" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="DV112" t="n" s="10">
         <v>93.3</v>
@@ -42860,7 +42860,7 @@
         <v>94.1</v>
       </c>
       <c r="EB112" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="EC112" t="n" s="10">
         <v>95.7</v>
@@ -42874,7 +42874,7 @@
         <v>36</v>
       </c>
       <c r="C113" t="n" s="10">
-        <v>108.0</v>
+        <v>107.9</v>
       </c>
       <c r="D113" t="n" s="10">
         <v>107.8</v>
@@ -42892,7 +42892,7 @@
         <v>107.5</v>
       </c>
       <c r="I113" t="n" s="10">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="J113" t="n" s="10">
         <v>107.4</v>
@@ -42982,7 +42982,7 @@
         <v>105.9</v>
       </c>
       <c r="AM113" t="n" s="10">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="AN113" t="n" s="10">
         <v>105.4</v>
@@ -43057,7 +43057,7 @@
         <v>101.9</v>
       </c>
       <c r="BL113" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="BM113" t="n" s="10">
         <v>102.0</v>
@@ -43081,7 +43081,7 @@
         <v>101.3</v>
       </c>
       <c r="BT113" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="BU113" t="n" s="10">
         <v>101.6</v>
@@ -43093,7 +43093,7 @@
         <v>101.7</v>
       </c>
       <c r="BX113" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="BY113" t="n" s="10">
         <v>101.9</v>
@@ -43114,7 +43114,7 @@
         <v>101.9</v>
       </c>
       <c r="CE113" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="CF113" t="n" s="10">
         <v>101.8</v>
@@ -43162,7 +43162,7 @@
         <v>97.5</v>
       </c>
       <c r="CU113" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="CV113" t="n" s="10">
         <v>96.5</v>
@@ -43177,13 +43177,13 @@
         <v>95.1</v>
       </c>
       <c r="CZ113" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="DA113" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="DB113" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="DC113" t="n" s="10">
         <v>93.6</v>
@@ -43222,7 +43222,7 @@
         <v>89.6</v>
       </c>
       <c r="DO113" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="DP113" t="n" s="10">
         <v>89.8</v>
@@ -43264,10 +43264,10 @@
         <v>94.0</v>
       </c>
       <c r="EC113" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="ED113" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="114">
@@ -44568,7 +44568,7 @@
         <v>94.1</v>
       </c>
       <c r="AF117" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="AG117" t="n" s="10">
         <v>97.6</v>
@@ -44592,7 +44592,7 @@
         <v>97.8</v>
       </c>
       <c r="AN117" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="AO117" t="n" s="10">
         <v>100.2</v>
@@ -44640,7 +44640,7 @@
         <v>96.4</v>
       </c>
       <c r="BD117" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="BE117" t="n" s="10">
         <v>94.8</v>
@@ -44661,7 +44661,7 @@
         <v>93.4</v>
       </c>
       <c r="BK117" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="BL117" t="n" s="10">
         <v>91.0</v>
@@ -44694,7 +44694,7 @@
         <v>95.4</v>
       </c>
       <c r="BV117" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="BW117" t="n" s="10">
         <v>91.4</v>
@@ -44766,7 +44766,7 @@
         <v>95.5</v>
       </c>
       <c r="CT117" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="CU117" t="n" s="10">
         <v>91.1</v>
@@ -44871,7 +44871,7 @@
         <v>87.5</v>
       </c>
       <c r="EC117" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="ED117" t="n" s="10">
         <v>88.9</v>
@@ -46494,19 +46494,19 @@
         <v>35</v>
       </c>
       <c r="C123" t="n" s="10">
-        <v>127.5</v>
+        <v>127.6</v>
       </c>
       <c r="D123" t="n" s="10">
         <v>125.3</v>
       </c>
       <c r="E123" t="n" s="10">
-        <v>127.5</v>
+        <v>127.7</v>
       </c>
       <c r="F123" t="n" s="10">
         <v>126.4</v>
       </c>
       <c r="G123" t="n" s="10">
-        <v>123.3</v>
+        <v>123.4</v>
       </c>
       <c r="H123" t="n" s="10">
         <v>126.1</v>
@@ -46518,28 +46518,28 @@
         <v>126.6</v>
       </c>
       <c r="K123" t="n" s="10">
-        <v>127.4</v>
+        <v>127.3</v>
       </c>
       <c r="L123" t="n" s="10">
         <v>128.4</v>
       </c>
       <c r="M123" t="n" s="10">
-        <v>129.2</v>
+        <v>129.3</v>
       </c>
       <c r="N123" t="n" s="10">
-        <v>134.5</v>
+        <v>134.3</v>
       </c>
       <c r="O123" t="n" s="10">
         <v>125.0</v>
       </c>
       <c r="P123" t="n" s="10">
-        <v>127.8</v>
+        <v>127.9</v>
       </c>
       <c r="Q123" t="n" s="10">
         <v>125.3</v>
       </c>
       <c r="R123" t="n" s="10">
-        <v>124.0</v>
+        <v>124.1</v>
       </c>
       <c r="S123" t="n" s="10">
         <v>125.7</v>
@@ -46548,148 +46548,148 @@
         <v>123.6</v>
       </c>
       <c r="U123" t="n" s="10">
-        <v>122.4</v>
+        <v>122.5</v>
       </c>
       <c r="V123" t="n" s="10">
-        <v>121.9</v>
+        <v>121.8</v>
       </c>
       <c r="W123" t="n" s="10">
-        <v>122.7</v>
+        <v>122.6</v>
       </c>
       <c r="X123" t="n" s="10">
-        <v>120.9</v>
+        <v>120.8</v>
       </c>
       <c r="Y123" t="n" s="10">
-        <v>119.8</v>
+        <v>119.6</v>
       </c>
       <c r="Z123" t="n" s="10">
-        <v>121.5</v>
+        <v>121.3</v>
       </c>
       <c r="AA123" t="n" s="10">
-        <v>121.6</v>
+        <v>121.4</v>
       </c>
       <c r="AB123" t="n" s="10">
-        <v>119.6</v>
+        <v>119.4</v>
       </c>
       <c r="AC123" t="n" s="10">
-        <v>118.6</v>
+        <v>120.5</v>
       </c>
       <c r="AD123" t="n" s="10">
-        <v>121.0</v>
+        <v>120.8</v>
       </c>
       <c r="AE123" t="n" s="10">
-        <v>120.5</v>
+        <v>120.3</v>
       </c>
       <c r="AF123" t="n" s="10">
         <v>121.0</v>
       </c>
       <c r="AG123" t="n" s="10">
-        <v>121.9</v>
+        <v>121.6</v>
       </c>
       <c r="AH123" t="n" s="10">
-        <v>122.3</v>
+        <v>122.1</v>
       </c>
       <c r="AI123" t="n" s="10">
-        <v>119.7</v>
+        <v>119.4</v>
       </c>
       <c r="AJ123" t="n" s="10">
-        <v>120.8</v>
+        <v>120.5</v>
       </c>
       <c r="AK123" t="n" s="10">
-        <v>122.0</v>
+        <v>121.7</v>
       </c>
       <c r="AL123" t="n" s="10">
-        <v>120.9</v>
+        <v>120.6</v>
       </c>
       <c r="AM123" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="AN123" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="AO123" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="AP123" t="n" s="10">
+        <v>120.5</v>
+      </c>
+      <c r="AQ123" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="AR123" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="AS123" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="AT123" t="n" s="10">
+        <v>116.9</v>
+      </c>
+      <c r="AU123" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="AV123" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="AW123" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="AX123" t="n" s="10">
+        <v>118.4</v>
+      </c>
+      <c r="AY123" t="n" s="10">
+        <v>121.4</v>
+      </c>
+      <c r="AZ123" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="BA123" t="n" s="10">
+        <v>125.4</v>
+      </c>
+      <c r="BB123" t="n" s="10">
+        <v>118.1</v>
+      </c>
+      <c r="BC123" t="n" s="10">
+        <v>119.1</v>
+      </c>
+      <c r="BD123" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="BE123" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="BF123" t="n" s="10">
+        <v>120.0</v>
+      </c>
+      <c r="BG123" t="n" s="10">
         <v>119.2</v>
       </c>
-      <c r="AN123" t="n" s="10">
-        <v>120.0</v>
-      </c>
-      <c r="AO123" t="n" s="10">
-        <v>112.4</v>
-      </c>
-      <c r="AP123" t="n" s="10">
-        <v>121.1</v>
-      </c>
-      <c r="AQ123" t="n" s="10">
-        <v>119.9</v>
-      </c>
-      <c r="AR123" t="n" s="10">
-        <v>119.2</v>
-      </c>
-      <c r="AS123" t="n" s="10">
-        <v>119.1</v>
-      </c>
-      <c r="AT123" t="n" s="10">
-        <v>117.2</v>
-      </c>
-      <c r="AU123" t="n" s="10">
-        <v>119.2</v>
-      </c>
-      <c r="AV123" t="n" s="10">
-        <v>119.1</v>
-      </c>
-      <c r="AW123" t="n" s="10">
-        <v>118.1</v>
-      </c>
-      <c r="AX123" t="n" s="10">
-        <v>118.6</v>
-      </c>
-      <c r="AY123" t="n" s="10">
-        <v>121.5</v>
-      </c>
-      <c r="AZ123" t="n" s="10">
-        <v>121.4</v>
-      </c>
-      <c r="BA123" t="n" s="10">
-        <v>123.5</v>
-      </c>
-      <c r="BB123" t="n" s="10">
-        <v>118.2</v>
-      </c>
-      <c r="BC123" t="n" s="10">
-        <v>119.4</v>
-      </c>
-      <c r="BD123" t="n" s="10">
-        <v>119.0</v>
-      </c>
-      <c r="BE123" t="n" s="10">
-        <v>119.1</v>
-      </c>
-      <c r="BF123" t="n" s="10">
-        <v>120.1</v>
-      </c>
-      <c r="BG123" t="n" s="10">
-        <v>119.3</v>
-      </c>
       <c r="BH123" t="n" s="10">
-        <v>118.5</v>
+        <v>118.4</v>
       </c>
       <c r="BI123" t="n" s="10">
-        <v>118.9</v>
+        <v>118.8</v>
       </c>
       <c r="BJ123" t="n" s="10">
         <v>118.8</v>
       </c>
       <c r="BK123" t="n" s="10">
-        <v>117.7</v>
+        <v>117.8</v>
       </c>
       <c r="BL123" t="n" s="10">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="BM123" t="n" s="10">
         <v>115.1</v>
       </c>
       <c r="BN123" t="n" s="10">
-        <v>116.2</v>
+        <v>116.1</v>
       </c>
       <c r="BO123" t="n" s="10">
         <v>115.6</v>
       </c>
       <c r="BP123" t="n" s="10">
-        <v>117.9</v>
+        <v>117.7</v>
       </c>
       <c r="BQ123" t="n" s="10">
         <v>117.2</v>
@@ -46698,7 +46698,7 @@
         <v>116.7</v>
       </c>
       <c r="BS123" t="n" s="10">
-        <v>116.1</v>
+        <v>116.0</v>
       </c>
       <c r="BT123" t="n" s="10">
         <v>117.6</v>
@@ -46707,7 +46707,7 @@
         <v>116.5</v>
       </c>
       <c r="BV123" t="n" s="10">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="BW123" t="n" s="10">
         <v>116.6</v>
@@ -46716,19 +46716,19 @@
         <v>122.0</v>
       </c>
       <c r="BY123" t="n" s="10">
-        <v>117.8</v>
+        <v>117.7</v>
       </c>
       <c r="BZ123" t="n" s="10">
-        <v>120.6</v>
+        <v>120.7</v>
       </c>
       <c r="CA123" t="n" s="10">
-        <v>119.9</v>
+        <v>119.7</v>
       </c>
       <c r="CB123" t="n" s="10">
-        <v>116.8</v>
+        <v>116.9</v>
       </c>
       <c r="CC123" t="n" s="10">
-        <v>118.6</v>
+        <v>118.7</v>
       </c>
       <c r="CD123" t="n" s="10">
         <v>117.6</v>
@@ -46737,31 +46737,31 @@
         <v>118.6</v>
       </c>
       <c r="CF123" t="n" s="10">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="CG123" t="n" s="10">
         <v>117.4</v>
       </c>
       <c r="CH123" t="n" s="10">
-        <v>118.1</v>
+        <v>118.2</v>
       </c>
       <c r="CI123" t="n" s="10">
         <v>117.8</v>
       </c>
       <c r="CJ123" t="n" s="10">
-        <v>114.7</v>
+        <v>114.8</v>
       </c>
       <c r="CK123" t="n" s="10">
-        <v>116.7</v>
+        <v>116.6</v>
       </c>
       <c r="CL123" t="n" s="10">
-        <v>114.9</v>
+        <v>115.0</v>
       </c>
       <c r="CM123" t="n" s="10">
-        <v>115.1</v>
+        <v>115.0</v>
       </c>
       <c r="CN123" t="n" s="10">
-        <v>116.7</v>
+        <v>116.8</v>
       </c>
       <c r="CO123" t="n" s="10">
         <v>112.3</v>
@@ -46770,7 +46770,7 @@
         <v>112.9</v>
       </c>
       <c r="CQ123" t="n" s="10">
-        <v>111.9</v>
+        <v>112.0</v>
       </c>
       <c r="CR123" t="n" s="10">
         <v>112.3</v>
@@ -46779,7 +46779,7 @@
         <v>111.4</v>
       </c>
       <c r="CT123" t="n" s="10">
-        <v>111.0</v>
+        <v>111.1</v>
       </c>
       <c r="CU123" t="n" s="10">
         <v>107.8</v>
@@ -46788,16 +46788,16 @@
         <v>107.6</v>
       </c>
       <c r="CW123" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="CX123" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="CY123" t="n" s="10">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="CZ123" t="n" s="10">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="DA123" t="n" s="10">
         <v>106.7</v>
@@ -46809,7 +46809,7 @@
         <v>105.1</v>
       </c>
       <c r="DD123" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="DE123" t="n" s="10">
         <v>104.6</v>
@@ -46824,16 +46824,16 @@
         <v>103.8</v>
       </c>
       <c r="DI123" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="DJ123" t="n" s="10">
         <v>104.6</v>
       </c>
       <c r="DK123" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="DL123" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="DM123" t="n" s="10">
         <v>102.3</v>
@@ -46848,22 +46848,22 @@
         <v>103.2</v>
       </c>
       <c r="DQ123" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="DR123" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="DS123" t="n" s="10">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="DT123" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="DU123" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="DV123" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="DW123" t="n" s="10">
         <v>105.3</v>
@@ -46884,10 +46884,10 @@
         <v>106.1</v>
       </c>
       <c r="EC123" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="ED123" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="124">
@@ -46937,7 +46937,7 @@
         <v>126.1</v>
       </c>
       <c r="Q124" t="n" s="10">
-        <v>125.6</v>
+        <v>125.7</v>
       </c>
       <c r="R124" t="n" s="10">
         <v>125.1</v>
@@ -46958,7 +46958,7 @@
         <v>121.9</v>
       </c>
       <c r="X124" t="n" s="10">
-        <v>121.4</v>
+        <v>121.5</v>
       </c>
       <c r="Y124" t="n" s="10">
         <v>121.2</v>
@@ -46970,85 +46970,85 @@
         <v>120.9</v>
       </c>
       <c r="AB124" t="n" s="10">
+        <v>120.8</v>
+      </c>
+      <c r="AC124" t="n" s="10">
         <v>120.7</v>
       </c>
-      <c r="AC124" t="n" s="10">
-        <v>120.6</v>
-      </c>
       <c r="AD124" t="n" s="10">
-        <v>120.6</v>
+        <v>120.7</v>
       </c>
       <c r="AE124" t="n" s="10">
-        <v>120.6</v>
+        <v>120.7</v>
       </c>
       <c r="AF124" t="n" s="10">
         <v>120.6</v>
       </c>
       <c r="AG124" t="n" s="10">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="AH124" t="n" s="10">
-        <v>120.8</v>
+        <v>120.6</v>
       </c>
       <c r="AI124" t="n" s="10">
-        <v>120.8</v>
+        <v>120.5</v>
       </c>
       <c r="AJ124" t="n" s="10">
-        <v>120.9</v>
+        <v>120.4</v>
       </c>
       <c r="AK124" t="n" s="10">
-        <v>120.9</v>
+        <v>120.3</v>
       </c>
       <c r="AL124" t="n" s="10">
-        <v>120.8</v>
+        <v>120.1</v>
       </c>
       <c r="AM124" t="n" s="10">
-        <v>120.6</v>
+        <v>119.9</v>
       </c>
       <c r="AN124" t="n" s="10">
-        <v>120.3</v>
+        <v>119.5</v>
       </c>
       <c r="AO124" t="n" s="10">
-        <v>120.0</v>
+        <v>119.1</v>
       </c>
       <c r="AP124" t="n" s="10">
-        <v>119.8</v>
+        <v>118.9</v>
       </c>
       <c r="AQ124" t="n" s="10">
-        <v>119.5</v>
+        <v>118.7</v>
       </c>
       <c r="AR124" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="AS124" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="AT124" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="AU124" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="AV124" t="n" s="10">
+        <v>119.2</v>
+      </c>
+      <c r="AW124" t="n" s="10">
         <v>119.4</v>
-      </c>
-      <c r="AS124" t="n" s="10">
-        <v>119.3</v>
-      </c>
-      <c r="AT124" t="n" s="10">
-        <v>119.2</v>
-      </c>
-      <c r="AU124" t="n" s="10">
-        <v>119.3</v>
-      </c>
-      <c r="AV124" t="n" s="10">
-        <v>119.4</v>
-      </c>
-      <c r="AW124" t="n" s="10">
-        <v>119.5</v>
       </c>
       <c r="AX124" t="n" s="10">
         <v>119.7</v>
       </c>
       <c r="AY124" t="n" s="10">
-        <v>119.9</v>
+        <v>120.0</v>
       </c>
       <c r="AZ124" t="n" s="10">
-        <v>120.1</v>
+        <v>120.2</v>
       </c>
       <c r="BA124" t="n" s="10">
-        <v>120.1</v>
+        <v>120.2</v>
       </c>
       <c r="BB124" t="n" s="10">
-        <v>120.1</v>
+        <v>120.2</v>
       </c>
       <c r="BC124" t="n" s="10">
         <v>119.9</v>
@@ -47066,7 +47066,7 @@
         <v>118.8</v>
       </c>
       <c r="BH124" t="n" s="10">
-        <v>118.4</v>
+        <v>118.3</v>
       </c>
       <c r="BI124" t="n" s="10">
         <v>118.0</v>
@@ -47087,7 +47087,7 @@
         <v>116.5</v>
       </c>
       <c r="BO124" t="n" s="10">
-        <v>116.5</v>
+        <v>116.4</v>
       </c>
       <c r="BP124" t="n" s="10">
         <v>116.4</v>
@@ -47096,13 +47096,13 @@
         <v>116.4</v>
       </c>
       <c r="BR124" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="BS124" t="n" s="10">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="BT124" t="n" s="10">
-        <v>117.1</v>
+        <v>117.0</v>
       </c>
       <c r="BU124" t="n" s="10">
         <v>117.3</v>
@@ -47117,13 +47117,13 @@
         <v>118.3</v>
       </c>
       <c r="BY124" t="n" s="10">
-        <v>118.6</v>
+        <v>118.5</v>
       </c>
       <c r="BZ124" t="n" s="10">
         <v>118.6</v>
       </c>
       <c r="CA124" t="n" s="10">
-        <v>118.7</v>
+        <v>118.6</v>
       </c>
       <c r="CB124" t="n" s="10">
         <v>118.6</v>
@@ -47159,7 +47159,7 @@
         <v>115.6</v>
       </c>
       <c r="CM124" t="n" s="10">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="CN124" t="n" s="10">
         <v>114.6</v>
@@ -47171,7 +47171,7 @@
         <v>113.0</v>
       </c>
       <c r="CQ124" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="CR124" t="n" s="10">
         <v>111.3</v>
@@ -47186,10 +47186,10 @@
         <v>108.8</v>
       </c>
       <c r="CV124" t="n" s="10">
-        <v>107.9</v>
+        <v>108.0</v>
       </c>
       <c r="CW124" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="CX124" t="n" s="10">
         <v>106.5</v>
@@ -47231,16 +47231,16 @@
         <v>103.8</v>
       </c>
       <c r="DK124" t="n" s="10">
+        <v>103.7</v>
+      </c>
+      <c r="DL124" t="n" s="10">
         <v>103.6</v>
-      </c>
-      <c r="DL124" t="n" s="10">
-        <v>103.5</v>
       </c>
       <c r="DM124" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="DN124" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="DO124" t="n" s="10">
         <v>104.0</v>
@@ -47264,7 +47264,7 @@
         <v>106.1</v>
       </c>
       <c r="DV124" t="n" s="10">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="DW124" t="n" s="10">
         <v>106.4</v>
@@ -47279,7 +47279,7 @@
         <v>106.1</v>
       </c>
       <c r="EA124" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="EB124" t="n" s="10">
         <v>105.6</v>
@@ -48508,7 +48508,7 @@
         <v>108.5</v>
       </c>
       <c r="E128" t="n" s="10">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="F128" t="n" s="10">
         <v>109.6</v>
@@ -48523,22 +48523,22 @@
         <v>108.8</v>
       </c>
       <c r="J128" t="n" s="10">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="K128" t="n" s="10">
         <v>110.8</v>
       </c>
       <c r="L128" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="M128" t="n" s="10">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="N128" t="n" s="10">
-        <v>116.9</v>
+        <v>116.8</v>
       </c>
       <c r="O128" t="n" s="10">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="P128" t="n" s="10">
         <v>111.9</v>
@@ -48547,7 +48547,7 @@
         <v>109.7</v>
       </c>
       <c r="R128" t="n" s="10">
-        <v>108.8</v>
+        <v>109.0</v>
       </c>
       <c r="S128" t="n" s="10">
         <v>110.2</v>
@@ -48562,118 +48562,118 @@
         <v>107.2</v>
       </c>
       <c r="W128" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="X128" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="Y128" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="Z128" t="n" s="10">
+        <v>107.1</v>
+      </c>
+      <c r="AA128" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="AB128" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="AC128" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="AD128" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="AE128" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="AF128" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="AG128" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="AH128" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="AI128" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="AJ128" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="AK128" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="AL128" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="AM128" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="AN128" t="n" s="10">
+        <v>106.2</v>
+      </c>
+      <c r="AO128" t="n" s="10">
+        <v>103.4</v>
+      </c>
+      <c r="AP128" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="AQ128" t="n" s="10">
+        <v>106.3</v>
+      </c>
+      <c r="AR128" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="AS128" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="AT128" t="n" s="10">
+        <v>104.1</v>
+      </c>
+      <c r="AU128" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="AV128" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="AW128" t="n" s="10">
+        <v>105.0</v>
+      </c>
+      <c r="AX128" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="AY128" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="AZ128" t="n" s="10">
         <v>108.1</v>
       </c>
-      <c r="X128" t="n" s="10">
+      <c r="BA128" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="BB128" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BC128" t="n" s="10">
         <v>106.7</v>
       </c>
-      <c r="Y128" t="n" s="10">
-        <v>105.7</v>
-      </c>
-      <c r="Z128" t="n" s="10">
-        <v>107.3</v>
-      </c>
-      <c r="AA128" t="n" s="10">
-        <v>107.4</v>
-      </c>
-      <c r="AB128" t="n" s="10">
-        <v>105.6</v>
-      </c>
-      <c r="AC128" t="n" s="10">
-        <v>104.9</v>
-      </c>
-      <c r="AD128" t="n" s="10">
+      <c r="BD128" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="BE128" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="BF128" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="BG128" t="n" s="10">
         <v>107.0</v>
       </c>
-      <c r="AE128" t="n" s="10">
-        <v>106.6</v>
-      </c>
-      <c r="AF128" t="n" s="10">
-        <v>107.4</v>
-      </c>
-      <c r="AG128" t="n" s="10">
-        <v>107.9</v>
-      </c>
-      <c r="AH128" t="n" s="10">
-        <v>108.4</v>
-      </c>
-      <c r="AI128" t="n" s="10">
-        <v>106.0</v>
-      </c>
-      <c r="AJ128" t="n" s="10">
-        <v>107.1</v>
-      </c>
-      <c r="AK128" t="n" s="10">
-        <v>108.2</v>
-      </c>
-      <c r="AL128" t="n" s="10">
-        <v>107.2</v>
-      </c>
-      <c r="AM128" t="n" s="10">
-        <v>105.7</v>
-      </c>
-      <c r="AN128" t="n" s="10">
-        <v>106.6</v>
-      </c>
-      <c r="AO128" t="n" s="10">
-        <v>100.1</v>
-      </c>
-      <c r="AP128" t="n" s="10">
-        <v>107.4</v>
-      </c>
-      <c r="AQ128" t="n" s="10">
-        <v>106.5</v>
-      </c>
-      <c r="AR128" t="n" s="10">
-        <v>105.6</v>
-      </c>
-      <c r="AS128" t="n" s="10">
-        <v>105.7</v>
-      </c>
-      <c r="AT128" t="n" s="10">
-        <v>104.3</v>
-      </c>
-      <c r="AU128" t="n" s="10">
-        <v>105.9</v>
-      </c>
-      <c r="AV128" t="n" s="10">
-        <v>106.0</v>
-      </c>
-      <c r="AW128" t="n" s="10">
-        <v>105.2</v>
-      </c>
-      <c r="AX128" t="n" s="10">
-        <v>105.6</v>
-      </c>
-      <c r="AY128" t="n" s="10">
-        <v>108.4</v>
-      </c>
-      <c r="AZ128" t="n" s="10">
-        <v>108.2</v>
-      </c>
-      <c r="BA128" t="n" s="10">
-        <v>110.3</v>
-      </c>
-      <c r="BB128" t="n" s="10">
-        <v>105.7</v>
-      </c>
-      <c r="BC128" t="n" s="10">
-        <v>106.8</v>
-      </c>
-      <c r="BD128" t="n" s="10">
-        <v>106.7</v>
-      </c>
-      <c r="BE128" t="n" s="10">
-        <v>106.8</v>
-      </c>
-      <c r="BF128" t="n" s="10">
-        <v>107.7</v>
-      </c>
-      <c r="BG128" t="n" s="10">
-        <v>107.1</v>
-      </c>
       <c r="BH128" t="n" s="10">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="BI128" t="n" s="10">
         <v>106.8</v>
@@ -48685,7 +48685,7 @@
         <v>105.7</v>
       </c>
       <c r="BL128" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="BM128" t="n" s="10">
         <v>103.5</v>
@@ -48697,7 +48697,7 @@
         <v>104.0</v>
       </c>
       <c r="BP128" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="BQ128" t="n" s="10">
         <v>105.4</v>
@@ -48709,28 +48709,28 @@
         <v>104.4</v>
       </c>
       <c r="BT128" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="BU128" t="n" s="10">
         <v>104.9</v>
       </c>
       <c r="BV128" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="BW128" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="BX128" t="n" s="10">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="BY128" t="n" s="10">
         <v>106.0</v>
       </c>
       <c r="BZ128" t="n" s="10">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="CA128" t="n" s="10">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="CB128" t="n" s="10">
         <v>105.3</v>
@@ -48769,25 +48769,25 @@
         <v>104.4</v>
       </c>
       <c r="CN128" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
       <c r="CO128" t="n" s="10">
         <v>102.1</v>
       </c>
       <c r="CP128" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="CQ128" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="CR128" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="CS128" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="CT128" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="CU128" t="n" s="10">
         <v>98.6</v>
@@ -48796,19 +48796,19 @@
         <v>98.4</v>
       </c>
       <c r="CW128" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="CX128" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="CY128" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="CZ128" t="n" s="10">
         <v>95.1</v>
       </c>
       <c r="DA128" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="DB128" t="n" s="10">
         <v>97.1</v>
@@ -48841,13 +48841,13 @@
         <v>96.0</v>
       </c>
       <c r="DL128" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="DM128" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="DN128" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="DO128" t="n" s="10">
         <v>95.2</v>
@@ -48856,7 +48856,7 @@
         <v>94.8</v>
       </c>
       <c r="DQ128" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="DR128" t="n" s="10">
         <v>96.0</v>
@@ -48868,7 +48868,7 @@
         <v>98.2</v>
       </c>
       <c r="DU128" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="DV128" t="n" s="10">
         <v>98.0</v>
@@ -48892,10 +48892,10 @@
         <v>97.5</v>
       </c>
       <c r="EC128" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="ED128" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="129">
@@ -48948,7 +48948,7 @@
         <v>110.0</v>
       </c>
       <c r="R129" t="n" s="10">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="S129" t="n" s="10">
         <v>109.2</v>
@@ -48978,85 +48978,85 @@
         <v>106.8</v>
       </c>
       <c r="AB129" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="AC129" t="n" s="10">
         <v>106.7</v>
       </c>
-      <c r="AC129" t="n" s="10">
-        <v>106.6</v>
-      </c>
       <c r="AD129" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AE129" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AF129" t="n" s="10">
         <v>106.8</v>
       </c>
       <c r="AG129" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="AH129" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="AJ129" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="AK129" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="AL129" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="AM129" t="n" s="10">
+        <v>106.3</v>
+      </c>
+      <c r="AN129" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="AO129" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="AP129" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="AQ129" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="AR129" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="AS129" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="AT129" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="AU129" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="AV129" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="AW129" t="n" s="10">
+        <v>106.3</v>
+      </c>
+      <c r="AX129" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="AY129" t="n" s="10">
         <v>107.0</v>
       </c>
-      <c r="AI129" t="n" s="10">
-        <v>107.0</v>
-      </c>
-      <c r="AJ129" t="n" s="10">
-        <v>107.1</v>
-      </c>
-      <c r="AK129" t="n" s="10">
-        <v>107.2</v>
-      </c>
-      <c r="AL129" t="n" s="10">
-        <v>107.1</v>
-      </c>
-      <c r="AM129" t="n" s="10">
-        <v>107.0</v>
-      </c>
-      <c r="AN129" t="n" s="10">
-        <v>106.8</v>
-      </c>
-      <c r="AO129" t="n" s="10">
-        <v>106.5</v>
-      </c>
-      <c r="AP129" t="n" s="10">
-        <v>106.3</v>
-      </c>
-      <c r="AQ129" t="n" s="10">
-        <v>106.1</v>
-      </c>
-      <c r="AR129" t="n" s="10">
-        <v>106.0</v>
-      </c>
-      <c r="AS129" t="n" s="10">
-        <v>106.0</v>
-      </c>
-      <c r="AT129" t="n" s="10">
-        <v>106.0</v>
-      </c>
-      <c r="AU129" t="n" s="10">
-        <v>106.1</v>
-      </c>
-      <c r="AV129" t="n" s="10">
-        <v>106.2</v>
-      </c>
-      <c r="AW129" t="n" s="10">
-        <v>106.4</v>
-      </c>
-      <c r="AX129" t="n" s="10">
-        <v>106.6</v>
-      </c>
-      <c r="AY129" t="n" s="10">
-        <v>106.9</v>
-      </c>
       <c r="AZ129" t="n" s="10">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="BA129" t="n" s="10">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="BB129" t="n" s="10">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="BC129" t="n" s="10">
         <v>107.3</v>
@@ -49098,19 +49098,19 @@
         <v>104.7</v>
       </c>
       <c r="BP129" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="BQ129" t="n" s="10">
         <v>104.7</v>
       </c>
       <c r="BR129" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="BS129" t="n" s="10">
         <v>105.1</v>
       </c>
       <c r="BT129" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="BU129" t="n" s="10">
         <v>105.6</v>
@@ -49122,16 +49122,16 @@
         <v>106.2</v>
       </c>
       <c r="BX129" t="n" s="10">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="BY129" t="n" s="10">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="BZ129" t="n" s="10">
         <v>106.8</v>
       </c>
       <c r="CA129" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="CB129" t="n" s="10">
         <v>106.8</v>
@@ -49182,7 +49182,7 @@
         <v>102.1</v>
       </c>
       <c r="CR129" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="CS129" t="n" s="10">
         <v>100.8</v>
@@ -49200,10 +49200,10 @@
         <v>98.0</v>
       </c>
       <c r="CX129" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="CY129" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="CZ129" t="n" s="10">
         <v>96.6</v>
@@ -49224,7 +49224,7 @@
         <v>95.8</v>
       </c>
       <c r="DF129" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="DG129" t="n" s="10">
         <v>95.7</v>
@@ -49233,10 +49233,10 @@
         <v>95.6</v>
       </c>
       <c r="DI129" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="DJ129" t="n" s="10">
         <v>95.4</v>
-      </c>
-      <c r="DJ129" t="n" s="10">
-        <v>95.3</v>
       </c>
       <c r="DK129" t="n" s="10">
         <v>95.2</v>
@@ -49284,7 +49284,7 @@
         <v>97.6</v>
       </c>
       <c r="DZ129" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="EA129" t="n" s="10">
         <v>97.2</v>
@@ -49296,7 +49296,7 @@
         <v>96.8</v>
       </c>
       <c r="ED129" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="130" ht="33.75" customHeight="true">
@@ -50548,7 +50548,7 @@
         <v>53.5</v>
       </c>
       <c r="N134" t="n" s="10">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="O134" t="n" s="10">
         <v>51.7</v>
@@ -50560,7 +50560,7 @@
         <v>53.3</v>
       </c>
       <c r="R134" t="n" s="10">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="S134" t="n" s="10">
         <v>53.6</v>
@@ -50707,7 +50707,7 @@
         <v>64.2</v>
       </c>
       <c r="BO134" t="n" s="10">
-        <v>64.5</v>
+        <v>64.4</v>
       </c>
       <c r="BP134" t="n" s="10">
         <v>65.0</v>
@@ -50725,7 +50725,7 @@
         <v>65.7</v>
       </c>
       <c r="BU134" t="n" s="10">
-        <v>65.6</v>
+        <v>65.7</v>
       </c>
       <c r="BV134" t="n" s="10">
         <v>64.4</v>
@@ -50743,7 +50743,7 @@
         <v>68.2</v>
       </c>
       <c r="CA134" t="n" s="10">
-        <v>68.5</v>
+        <v>68.6</v>
       </c>
       <c r="CB134" t="n" s="10">
         <v>68.7</v>
@@ -50881,7 +50881,7 @@
         <v>75.8</v>
       </c>
       <c r="DU134" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="DV134" t="n" s="10">
         <v>77.8</v>
@@ -50940,7 +50940,7 @@
         <v>51.6</v>
       </c>
       <c r="K135" t="n" s="10">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="L135" t="n" s="10">
         <v>52.1</v>
@@ -52844,79 +52844,79 @@
         <v>70.3</v>
       </c>
       <c r="DF139" t="n" s="10">
-        <v>70.6</v>
+        <v>70.2</v>
       </c>
       <c r="DG139" t="n" s="10">
-        <v>70.7</v>
+        <v>70.8</v>
       </c>
       <c r="DH139" t="n" s="10">
         <v>71.8</v>
       </c>
       <c r="DI139" t="n" s="10">
-        <v>70.1</v>
+        <v>70.2</v>
       </c>
       <c r="DJ139" t="n" s="10">
         <v>71.8</v>
       </c>
       <c r="DK139" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="DL139" t="n" s="10">
+        <v>71.7</v>
+      </c>
+      <c r="DM139" t="n" s="10">
         <v>71.6</v>
-      </c>
-      <c r="DM139" t="n" s="10">
-        <v>71.5</v>
       </c>
       <c r="DN139" t="n" s="10">
         <v>71.5</v>
       </c>
       <c r="DO139" t="n" s="10">
-        <v>71.6</v>
+        <v>71.7</v>
       </c>
       <c r="DP139" t="n" s="10">
-        <v>71.9</v>
+        <v>72.0</v>
       </c>
       <c r="DQ139" t="n" s="10">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="DR139" t="n" s="10">
-        <v>77.4</v>
+        <v>76.3</v>
       </c>
       <c r="DS139" t="n" s="10">
-        <v>67.4</v>
+        <v>67.5</v>
       </c>
       <c r="DT139" t="n" s="10">
-        <v>69.8</v>
+        <v>69.9</v>
       </c>
       <c r="DU139" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="DV139" t="n" s="10">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="DW139" t="n" s="10">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="DX139" t="n" s="10">
+        <v>72.4</v>
+      </c>
+      <c r="DY139" t="n" s="10">
         <v>72.3</v>
       </c>
-      <c r="DY139" t="n" s="10">
-        <v>72.2</v>
-      </c>
       <c r="DZ139" t="n" s="10">
-        <v>71.9</v>
+        <v>72.0</v>
       </c>
       <c r="EA139" t="n" s="10">
-        <v>71.9</v>
+        <v>72.1</v>
       </c>
       <c r="EB139" t="n" s="10">
-        <v>72.3</v>
+        <v>72.5</v>
       </c>
       <c r="EC139" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="ED139" t="n" s="10">
-        <v>75.1</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="140">
@@ -52945,7 +52945,7 @@
         <v>47.7</v>
       </c>
       <c r="J140" t="n" s="10">
-        <v>48.1</v>
+        <v>48.0</v>
       </c>
       <c r="K140" t="n" s="10">
         <v>48.4</v>
@@ -53248,7 +53248,7 @@
         <v>70.7</v>
       </c>
       <c r="DG140" t="n" s="10">
-        <v>70.9</v>
+        <v>70.8</v>
       </c>
       <c r="DH140" t="n" s="10">
         <v>71.0</v>
@@ -53260,64 +53260,64 @@
         <v>71.3</v>
       </c>
       <c r="DK140" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="DL140" t="n" s="10">
         <v>71.5</v>
       </c>
       <c r="DM140" t="n" s="10">
+        <v>71.6</v>
+      </c>
+      <c r="DN140" t="n" s="10">
+        <v>71.6</v>
+      </c>
+      <c r="DO140" t="n" s="10">
         <v>71.5</v>
       </c>
-      <c r="DN140" t="n" s="10">
+      <c r="DP140" t="n" s="10">
         <v>71.5</v>
       </c>
-      <c r="DO140" t="n" s="10">
+      <c r="DQ140" t="n" s="10">
         <v>71.4</v>
       </c>
-      <c r="DP140" t="n" s="10">
+      <c r="DR140" t="n" s="10">
         <v>71.4</v>
       </c>
-      <c r="DQ140" t="n" s="10">
+      <c r="DS140" t="n" s="10">
         <v>71.3</v>
       </c>
-      <c r="DR140" t="n" s="10">
+      <c r="DT140" t="n" s="10">
         <v>71.2</v>
       </c>
-      <c r="DS140" t="n" s="10">
-        <v>71.2</v>
-      </c>
-      <c r="DT140" t="n" s="10">
-        <v>71.1</v>
-      </c>
       <c r="DU140" t="n" s="10">
-        <v>71.1</v>
+        <v>71.3</v>
       </c>
       <c r="DV140" t="n" s="10">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="DW140" t="n" s="10">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="DX140" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="DY140" t="n" s="10">
-        <v>71.7</v>
+        <v>71.9</v>
       </c>
       <c r="DZ140" t="n" s="10">
-        <v>71.9</v>
+        <v>72.1</v>
       </c>
       <c r="EA140" t="n" s="10">
-        <v>72.2</v>
+        <v>72.4</v>
       </c>
       <c r="EB140" t="n" s="10">
-        <v>72.5</v>
+        <v>72.7</v>
       </c>
       <c r="EC140" t="n" s="10">
-        <v>72.9</v>
+        <v>73.1</v>
       </c>
       <c r="ED140" t="n" s="10">
-        <v>73.2</v>
+        <v>73.4</v>
       </c>
     </row>
     <row r="141">
@@ -53410,7 +53410,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:04:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:40:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>